--- a/INTLINE/data/134/DEUSTATIS/old/Foreign trade - total.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/Foreign trade - total.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="48">
   <si>
     <t>Exports and imports (foreign trade): Germany, months</t>
   </si>
@@ -98,6 +98,9 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>Months</t>
   </si>
   <si>
@@ -152,7 +155,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:09:04</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:45:45</t>
   </si>
 </sst>
 </file>
@@ -832,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1623">
+  <cellXfs count="1695">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -1948,16 +1951,112 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -4104,6 +4203,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -5168,6 +5315,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -6232,6 +6427,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -6242,6 +6485,54 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -7315,7 +7606,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="265" max="16384" style="7" width="12.7109375" collapsed="true"/>
+    <col min="268" max="16384" style="7" width="12.7109375" collapsed="true"/>
+    <col min="267" max="267" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
+    <col min="266" max="266" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
+    <col min="265" max="265" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="264" max="264" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="263" max="263" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="262" max="262" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
@@ -7823,6 +8117,9 @@
     <col min="262" max="262" width="11.09375" customWidth="true"/>
     <col min="263" max="263" width="11.09375" customWidth="true"/>
     <col min="264" max="264" width="11.09375" customWidth="true"/>
+    <col min="265" max="265" width="11.09375" customWidth="true"/>
+    <col min="266" max="266" width="11.09375" customWidth="true"/>
+    <col min="267" max="267" width="11.09375" customWidth="true"/>
     <col min="1" max="1" width="14.859375" style="7" customWidth="true"/>
   </cols>
   <sheetData>
@@ -7842,1705 +8139,1781 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="559">
+      <c r="A4" t="s" s="583">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="560">
+      <c r="B4" t="s" s="584">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="561">
+      <c r="C4" t="s" s="585">
         <v>5</v>
       </c>
-      <c r="D4" s="562"/>
-      <c r="E4" s="563"/>
-      <c r="F4" s="564"/>
-      <c r="G4" s="565"/>
-      <c r="H4" s="566"/>
-      <c r="I4" s="567"/>
-      <c r="J4" s="568"/>
-      <c r="K4" s="569"/>
-      <c r="L4" s="570"/>
-      <c r="M4" s="571"/>
-      <c r="N4" s="572"/>
-      <c r="O4" s="573"/>
-      <c r="P4" s="574"/>
-      <c r="Q4" s="575"/>
-      <c r="R4" s="576"/>
-      <c r="S4" s="577"/>
-      <c r="T4" s="578"/>
-      <c r="U4" s="579"/>
-      <c r="V4" s="580"/>
-      <c r="W4" s="581"/>
-      <c r="X4" s="582"/>
-      <c r="Y4" s="583"/>
-      <c r="Z4" s="584"/>
-      <c r="AA4" s="585"/>
-      <c r="AB4" s="586"/>
-      <c r="AC4" s="587"/>
-      <c r="AD4" s="588"/>
-      <c r="AE4" s="589"/>
-      <c r="AF4" s="590"/>
-      <c r="AG4" s="591"/>
-      <c r="AH4" s="592"/>
-      <c r="AI4" s="593"/>
-      <c r="AJ4" s="594"/>
-      <c r="AK4" s="595"/>
-      <c r="AL4" s="596"/>
-      <c r="AM4" s="597"/>
-      <c r="AN4" s="598"/>
-      <c r="AO4" s="599"/>
-      <c r="AP4" s="600"/>
-      <c r="AQ4" s="601"/>
-      <c r="AR4" s="602"/>
-      <c r="AS4" s="603"/>
-      <c r="AT4" s="604"/>
-      <c r="AU4" s="605"/>
-      <c r="AV4" s="606"/>
-      <c r="AW4" s="607"/>
-      <c r="AX4" s="608"/>
-      <c r="AY4" s="609"/>
-      <c r="AZ4" s="610"/>
-      <c r="BA4" s="611"/>
-      <c r="BB4" s="612"/>
-      <c r="BC4" s="613"/>
-      <c r="BD4" s="614"/>
-      <c r="BE4" s="615"/>
-      <c r="BF4" s="616"/>
-      <c r="BG4" s="617"/>
-      <c r="BH4" s="618"/>
-      <c r="BI4" s="619"/>
-      <c r="BJ4" s="620"/>
-      <c r="BK4" s="621"/>
-      <c r="BL4" s="622"/>
-      <c r="BM4" s="623"/>
-      <c r="BN4" s="624"/>
-      <c r="BO4" s="625"/>
-      <c r="BP4" s="626"/>
-      <c r="BQ4" s="627"/>
-      <c r="BR4" s="628"/>
-      <c r="BS4" s="629"/>
-      <c r="BT4" s="630"/>
-      <c r="BU4" s="631"/>
-      <c r="BV4" s="632"/>
-      <c r="BW4" s="633"/>
-      <c r="BX4" s="634"/>
-      <c r="BY4" s="635"/>
-      <c r="BZ4" s="636"/>
-      <c r="CA4" s="637"/>
-      <c r="CB4" s="638"/>
-      <c r="CC4" s="639"/>
-      <c r="CD4" s="640"/>
-      <c r="CE4" s="641"/>
-      <c r="CF4" s="642"/>
-      <c r="CG4" s="643"/>
-      <c r="CH4" s="644"/>
-      <c r="CI4" s="645"/>
-      <c r="CJ4" s="646"/>
-      <c r="CK4" s="647"/>
-      <c r="CL4" s="648"/>
-      <c r="CM4" s="649"/>
-      <c r="CN4" s="650"/>
-      <c r="CO4" s="651"/>
-      <c r="CP4" s="652"/>
-      <c r="CQ4" s="653"/>
-      <c r="CR4" s="654"/>
-      <c r="CS4" s="655"/>
-      <c r="CT4" s="656"/>
-      <c r="CU4" s="657"/>
-      <c r="CV4" s="658"/>
-      <c r="CW4" s="659"/>
-      <c r="CX4" s="660"/>
-      <c r="CY4" s="661"/>
-      <c r="CZ4" s="662"/>
-      <c r="DA4" s="663"/>
-      <c r="DB4" s="664"/>
-      <c r="DC4" s="665"/>
-      <c r="DD4" s="666"/>
-      <c r="DE4" s="667"/>
-      <c r="DF4" s="668"/>
-      <c r="DG4" s="669"/>
-      <c r="DH4" s="670"/>
-      <c r="DI4" s="671"/>
-      <c r="DJ4" s="672"/>
-      <c r="DK4" s="673"/>
-      <c r="DL4" s="674"/>
-      <c r="DM4" s="675"/>
-      <c r="DN4" s="676"/>
-      <c r="DO4" s="677"/>
-      <c r="DP4" s="678"/>
-      <c r="DQ4" s="679"/>
-      <c r="DR4" s="680"/>
-      <c r="DS4" s="681"/>
-      <c r="DT4" s="682"/>
-      <c r="DU4" s="683"/>
-      <c r="DV4" s="684"/>
-      <c r="DW4" s="685"/>
-      <c r="DX4" s="686"/>
-      <c r="DY4" s="687"/>
-      <c r="DZ4" s="688"/>
-      <c r="EA4" s="689"/>
-      <c r="EB4" s="690"/>
-      <c r="EC4" s="691"/>
-      <c r="ED4" s="692"/>
-      <c r="EE4" s="693"/>
-      <c r="EF4" s="694"/>
-      <c r="EG4" s="695"/>
-      <c r="EH4" s="696"/>
-      <c r="EI4" s="697"/>
-      <c r="EJ4" s="698"/>
-      <c r="EK4" s="699"/>
-      <c r="EL4" s="700"/>
-      <c r="EM4" s="701"/>
-      <c r="EN4" s="702"/>
-      <c r="EO4" s="703"/>
-      <c r="EP4" s="704"/>
-      <c r="EQ4" s="705"/>
-      <c r="ER4" s="706"/>
-      <c r="ES4" s="707"/>
-      <c r="ET4" s="708"/>
-      <c r="EU4" s="709"/>
-      <c r="EV4" s="710"/>
-      <c r="EW4" s="711"/>
-      <c r="EX4" s="712"/>
-      <c r="EY4" s="713"/>
-      <c r="EZ4" s="714"/>
-      <c r="FA4" s="715"/>
-      <c r="FB4" s="716"/>
-      <c r="FC4" s="717"/>
-      <c r="FD4" s="718"/>
-      <c r="FE4" s="719"/>
-      <c r="FF4" s="720"/>
-      <c r="FG4" s="721"/>
-      <c r="FH4" s="722"/>
-      <c r="FI4" s="723"/>
-      <c r="FJ4" s="724"/>
-      <c r="FK4" s="725"/>
-      <c r="FL4" s="726"/>
-      <c r="FM4" s="727"/>
-      <c r="FN4" s="728"/>
-      <c r="FO4" s="729"/>
-      <c r="FP4" s="730"/>
-      <c r="FQ4" s="731"/>
-      <c r="FR4" s="732"/>
-      <c r="FS4" s="733"/>
-      <c r="FT4" s="734"/>
-      <c r="FU4" s="735"/>
-      <c r="FV4" s="736"/>
-      <c r="FW4" s="737"/>
-      <c r="FX4" s="738"/>
-      <c r="FY4" s="739"/>
-      <c r="FZ4" s="740"/>
-      <c r="GA4" s="741"/>
-      <c r="GB4" s="742"/>
-      <c r="GC4" s="743"/>
-      <c r="GD4" s="744"/>
-      <c r="GE4" s="745"/>
-      <c r="GF4" s="746"/>
-      <c r="GG4" s="747"/>
-      <c r="GH4" s="748"/>
-      <c r="GI4" s="749"/>
-      <c r="GJ4" s="750"/>
-      <c r="GK4" s="751"/>
-      <c r="GL4" s="752"/>
-      <c r="GM4" s="753"/>
-      <c r="GN4" s="754"/>
-      <c r="GO4" s="755"/>
-      <c r="GP4" s="756"/>
-      <c r="GQ4" s="757"/>
-      <c r="GR4" s="758"/>
-      <c r="GS4" s="759"/>
-      <c r="GT4" s="760"/>
-      <c r="GU4" s="761"/>
-      <c r="GV4" s="762"/>
-      <c r="GW4" s="763"/>
-      <c r="GX4" s="764"/>
-      <c r="GY4" s="765"/>
-      <c r="GZ4" s="766"/>
-      <c r="HA4" s="767"/>
-      <c r="HB4" s="768"/>
-      <c r="HC4" s="769"/>
-      <c r="HD4" s="770"/>
-      <c r="HE4" s="771"/>
-      <c r="HF4" s="772"/>
-      <c r="HG4" s="773"/>
-      <c r="HH4" s="774"/>
-      <c r="HI4" s="775"/>
-      <c r="HJ4" s="776"/>
-      <c r="HK4" s="777"/>
-      <c r="HL4" s="778"/>
-      <c r="HM4" s="779"/>
-      <c r="HN4" s="780"/>
-      <c r="HO4" s="781"/>
-      <c r="HP4" s="782"/>
-      <c r="HQ4" s="783"/>
-      <c r="HR4" s="784"/>
-      <c r="HS4" s="785"/>
-      <c r="HT4" s="786"/>
-      <c r="HU4" s="787"/>
-      <c r="HV4" s="788"/>
-      <c r="HW4" s="789"/>
-      <c r="HX4" s="790"/>
-      <c r="HY4" s="791"/>
-      <c r="HZ4" s="792"/>
-      <c r="IA4" s="793"/>
-      <c r="IB4" s="794"/>
-      <c r="IC4" s="795"/>
-      <c r="ID4" s="796"/>
-      <c r="IE4" s="797"/>
-      <c r="IF4" s="798"/>
-      <c r="IG4" s="799"/>
-      <c r="IH4" s="800"/>
-      <c r="II4" s="801"/>
-      <c r="IJ4" s="802"/>
-      <c r="IK4" s="803"/>
-      <c r="IL4" s="804"/>
-      <c r="IM4" s="805"/>
-      <c r="IN4" s="806"/>
-      <c r="IO4" s="807"/>
-      <c r="IP4" s="808"/>
-      <c r="IQ4" s="809"/>
-      <c r="IR4" s="810"/>
-      <c r="IS4" s="811"/>
-      <c r="IT4" s="812"/>
-      <c r="IU4" s="813"/>
-      <c r="IV4" s="814"/>
-      <c r="IW4" s="815"/>
-      <c r="IX4" s="816"/>
-      <c r="IY4" s="817"/>
-      <c r="IZ4" s="818"/>
-      <c r="JA4" s="819"/>
-      <c r="JB4" s="820"/>
-      <c r="JC4" s="821"/>
-      <c r="JD4" s="822"/>
-      <c r="JE4" s="823"/>
-      <c r="JF4" s="824"/>
+      <c r="D4" s="586"/>
+      <c r="E4" s="587"/>
+      <c r="F4" s="588"/>
+      <c r="G4" s="589"/>
+      <c r="H4" s="590"/>
+      <c r="I4" s="591"/>
+      <c r="J4" s="592"/>
+      <c r="K4" s="593"/>
+      <c r="L4" s="594"/>
+      <c r="M4" s="595"/>
+      <c r="N4" s="596"/>
+      <c r="O4" s="597"/>
+      <c r="P4" s="598"/>
+      <c r="Q4" s="599"/>
+      <c r="R4" s="600"/>
+      <c r="S4" s="601"/>
+      <c r="T4" s="602"/>
+      <c r="U4" s="603"/>
+      <c r="V4" s="604"/>
+      <c r="W4" s="605"/>
+      <c r="X4" s="606"/>
+      <c r="Y4" s="607"/>
+      <c r="Z4" s="608"/>
+      <c r="AA4" s="609"/>
+      <c r="AB4" s="610"/>
+      <c r="AC4" s="611"/>
+      <c r="AD4" s="612"/>
+      <c r="AE4" s="613"/>
+      <c r="AF4" s="614"/>
+      <c r="AG4" s="615"/>
+      <c r="AH4" s="616"/>
+      <c r="AI4" s="617"/>
+      <c r="AJ4" s="618"/>
+      <c r="AK4" s="619"/>
+      <c r="AL4" s="620"/>
+      <c r="AM4" s="621"/>
+      <c r="AN4" s="622"/>
+      <c r="AO4" s="623"/>
+      <c r="AP4" s="624"/>
+      <c r="AQ4" s="625"/>
+      <c r="AR4" s="626"/>
+      <c r="AS4" s="627"/>
+      <c r="AT4" s="628"/>
+      <c r="AU4" s="629"/>
+      <c r="AV4" s="630"/>
+      <c r="AW4" s="631"/>
+      <c r="AX4" s="632"/>
+      <c r="AY4" s="633"/>
+      <c r="AZ4" s="634"/>
+      <c r="BA4" s="635"/>
+      <c r="BB4" s="636"/>
+      <c r="BC4" s="637"/>
+      <c r="BD4" s="638"/>
+      <c r="BE4" s="639"/>
+      <c r="BF4" s="640"/>
+      <c r="BG4" s="641"/>
+      <c r="BH4" s="642"/>
+      <c r="BI4" s="643"/>
+      <c r="BJ4" s="644"/>
+      <c r="BK4" s="645"/>
+      <c r="BL4" s="646"/>
+      <c r="BM4" s="647"/>
+      <c r="BN4" s="648"/>
+      <c r="BO4" s="649"/>
+      <c r="BP4" s="650"/>
+      <c r="BQ4" s="651"/>
+      <c r="BR4" s="652"/>
+      <c r="BS4" s="653"/>
+      <c r="BT4" s="654"/>
+      <c r="BU4" s="655"/>
+      <c r="BV4" s="656"/>
+      <c r="BW4" s="657"/>
+      <c r="BX4" s="658"/>
+      <c r="BY4" s="659"/>
+      <c r="BZ4" s="660"/>
+      <c r="CA4" s="661"/>
+      <c r="CB4" s="662"/>
+      <c r="CC4" s="663"/>
+      <c r="CD4" s="664"/>
+      <c r="CE4" s="665"/>
+      <c r="CF4" s="666"/>
+      <c r="CG4" s="667"/>
+      <c r="CH4" s="668"/>
+      <c r="CI4" s="669"/>
+      <c r="CJ4" s="670"/>
+      <c r="CK4" s="671"/>
+      <c r="CL4" s="672"/>
+      <c r="CM4" s="673"/>
+      <c r="CN4" s="674"/>
+      <c r="CO4" s="675"/>
+      <c r="CP4" s="676"/>
+      <c r="CQ4" s="677"/>
+      <c r="CR4" s="678"/>
+      <c r="CS4" s="679"/>
+      <c r="CT4" s="680"/>
+      <c r="CU4" s="681"/>
+      <c r="CV4" s="682"/>
+      <c r="CW4" s="683"/>
+      <c r="CX4" s="684"/>
+      <c r="CY4" s="685"/>
+      <c r="CZ4" s="686"/>
+      <c r="DA4" s="687"/>
+      <c r="DB4" s="688"/>
+      <c r="DC4" s="689"/>
+      <c r="DD4" s="690"/>
+      <c r="DE4" s="691"/>
+      <c r="DF4" s="692"/>
+      <c r="DG4" s="693"/>
+      <c r="DH4" s="694"/>
+      <c r="DI4" s="695"/>
+      <c r="DJ4" s="696"/>
+      <c r="DK4" s="697"/>
+      <c r="DL4" s="698"/>
+      <c r="DM4" s="699"/>
+      <c r="DN4" s="700"/>
+      <c r="DO4" s="701"/>
+      <c r="DP4" s="702"/>
+      <c r="DQ4" s="703"/>
+      <c r="DR4" s="704"/>
+      <c r="DS4" s="705"/>
+      <c r="DT4" s="706"/>
+      <c r="DU4" s="707"/>
+      <c r="DV4" s="708"/>
+      <c r="DW4" s="709"/>
+      <c r="DX4" s="710"/>
+      <c r="DY4" s="711"/>
+      <c r="DZ4" s="712"/>
+      <c r="EA4" s="713"/>
+      <c r="EB4" s="714"/>
+      <c r="EC4" s="715"/>
+      <c r="ED4" s="716"/>
+      <c r="EE4" s="717"/>
+      <c r="EF4" s="718"/>
+      <c r="EG4" s="719"/>
+      <c r="EH4" s="720"/>
+      <c r="EI4" s="721"/>
+      <c r="EJ4" s="722"/>
+      <c r="EK4" s="723"/>
+      <c r="EL4" s="724"/>
+      <c r="EM4" s="725"/>
+      <c r="EN4" s="726"/>
+      <c r="EO4" s="727"/>
+      <c r="EP4" s="728"/>
+      <c r="EQ4" s="729"/>
+      <c r="ER4" s="730"/>
+      <c r="ES4" s="731"/>
+      <c r="ET4" s="732"/>
+      <c r="EU4" s="733"/>
+      <c r="EV4" s="734"/>
+      <c r="EW4" s="735"/>
+      <c r="EX4" s="736"/>
+      <c r="EY4" s="737"/>
+      <c r="EZ4" s="738"/>
+      <c r="FA4" s="739"/>
+      <c r="FB4" s="740"/>
+      <c r="FC4" s="741"/>
+      <c r="FD4" s="742"/>
+      <c r="FE4" s="743"/>
+      <c r="FF4" s="744"/>
+      <c r="FG4" s="745"/>
+      <c r="FH4" s="746"/>
+      <c r="FI4" s="747"/>
+      <c r="FJ4" s="748"/>
+      <c r="FK4" s="749"/>
+      <c r="FL4" s="750"/>
+      <c r="FM4" s="751"/>
+      <c r="FN4" s="752"/>
+      <c r="FO4" s="753"/>
+      <c r="FP4" s="754"/>
+      <c r="FQ4" s="755"/>
+      <c r="FR4" s="756"/>
+      <c r="FS4" s="757"/>
+      <c r="FT4" s="758"/>
+      <c r="FU4" s="759"/>
+      <c r="FV4" s="760"/>
+      <c r="FW4" s="761"/>
+      <c r="FX4" s="762"/>
+      <c r="FY4" s="763"/>
+      <c r="FZ4" s="764"/>
+      <c r="GA4" s="765"/>
+      <c r="GB4" s="766"/>
+      <c r="GC4" s="767"/>
+      <c r="GD4" s="768"/>
+      <c r="GE4" s="769"/>
+      <c r="GF4" s="770"/>
+      <c r="GG4" s="771"/>
+      <c r="GH4" s="772"/>
+      <c r="GI4" s="773"/>
+      <c r="GJ4" s="774"/>
+      <c r="GK4" s="775"/>
+      <c r="GL4" s="776"/>
+      <c r="GM4" s="777"/>
+      <c r="GN4" s="778"/>
+      <c r="GO4" s="779"/>
+      <c r="GP4" s="780"/>
+      <c r="GQ4" s="781"/>
+      <c r="GR4" s="782"/>
+      <c r="GS4" s="783"/>
+      <c r="GT4" s="784"/>
+      <c r="GU4" s="785"/>
+      <c r="GV4" s="786"/>
+      <c r="GW4" s="787"/>
+      <c r="GX4" s="788"/>
+      <c r="GY4" s="789"/>
+      <c r="GZ4" s="790"/>
+      <c r="HA4" s="791"/>
+      <c r="HB4" s="792"/>
+      <c r="HC4" s="793"/>
+      <c r="HD4" s="794"/>
+      <c r="HE4" s="795"/>
+      <c r="HF4" s="796"/>
+      <c r="HG4" s="797"/>
+      <c r="HH4" s="798"/>
+      <c r="HI4" s="799"/>
+      <c r="HJ4" s="800"/>
+      <c r="HK4" s="801"/>
+      <c r="HL4" s="802"/>
+      <c r="HM4" s="803"/>
+      <c r="HN4" s="804"/>
+      <c r="HO4" s="805"/>
+      <c r="HP4" s="806"/>
+      <c r="HQ4" s="807"/>
+      <c r="HR4" s="808"/>
+      <c r="HS4" s="809"/>
+      <c r="HT4" s="810"/>
+      <c r="HU4" s="811"/>
+      <c r="HV4" s="812"/>
+      <c r="HW4" s="813"/>
+      <c r="HX4" s="814"/>
+      <c r="HY4" s="815"/>
+      <c r="HZ4" s="816"/>
+      <c r="IA4" s="817"/>
+      <c r="IB4" s="818"/>
+      <c r="IC4" s="819"/>
+      <c r="ID4" s="820"/>
+      <c r="IE4" s="821"/>
+      <c r="IF4" s="822"/>
+      <c r="IG4" s="823"/>
+      <c r="IH4" s="824"/>
+      <c r="II4" s="825"/>
+      <c r="IJ4" s="826"/>
+      <c r="IK4" s="827"/>
+      <c r="IL4" s="828"/>
+      <c r="IM4" s="829"/>
+      <c r="IN4" s="830"/>
+      <c r="IO4" s="831"/>
+      <c r="IP4" s="832"/>
+      <c r="IQ4" s="833"/>
+      <c r="IR4" s="834"/>
+      <c r="IS4" s="835"/>
+      <c r="IT4" s="836"/>
+      <c r="IU4" s="837"/>
+      <c r="IV4" s="838"/>
+      <c r="IW4" s="839"/>
+      <c r="IX4" s="840"/>
+      <c r="IY4" s="841"/>
+      <c r="IZ4" s="842"/>
+      <c r="JA4" s="843"/>
+      <c r="JB4" s="844"/>
+      <c r="JC4" s="845"/>
+      <c r="JD4" s="846"/>
+      <c r="JE4" s="847"/>
+      <c r="JF4" s="848"/>
+      <c r="JG4" s="849"/>
+      <c r="JH4" s="850"/>
+      <c r="JI4" s="851"/>
+      <c r="JJ4" s="852"/>
+      <c r="JK4" s="853"/>
+      <c r="JL4" s="854"/>
+      <c r="JM4" s="855"/>
+      <c r="JN4" s="856"/>
+      <c r="JO4" s="857"/>
+      <c r="JP4" s="858"/>
+      <c r="JQ4" s="859"/>
+      <c r="JR4" s="860"/>
     </row>
     <row r="5">
-      <c r="A5" s="825"/>
-      <c r="B5" s="826"/>
-      <c r="C5" t="s" s="827">
+      <c r="A5" s="861"/>
+      <c r="B5" s="862"/>
+      <c r="C5" t="s" s="863">
         <v>6</v>
       </c>
-      <c r="D5" s="828"/>
-      <c r="E5" s="829"/>
-      <c r="F5" s="830"/>
-      <c r="G5" s="831"/>
-      <c r="H5" s="832"/>
-      <c r="I5" s="833"/>
-      <c r="J5" s="834"/>
-      <c r="K5" s="835"/>
-      <c r="L5" s="836"/>
-      <c r="M5" s="837"/>
-      <c r="N5" s="838"/>
-      <c r="O5" t="s" s="839">
+      <c r="D5" s="864"/>
+      <c r="E5" s="865"/>
+      <c r="F5" s="866"/>
+      <c r="G5" s="867"/>
+      <c r="H5" s="868"/>
+      <c r="I5" s="869"/>
+      <c r="J5" s="870"/>
+      <c r="K5" s="871"/>
+      <c r="L5" s="872"/>
+      <c r="M5" s="873"/>
+      <c r="N5" s="874"/>
+      <c r="O5" t="s" s="875">
         <v>7</v>
       </c>
-      <c r="P5" s="840"/>
-      <c r="Q5" s="841"/>
-      <c r="R5" s="842"/>
-      <c r="S5" s="843"/>
-      <c r="T5" s="844"/>
-      <c r="U5" s="845"/>
-      <c r="V5" s="846"/>
-      <c r="W5" s="847"/>
-      <c r="X5" s="848"/>
-      <c r="Y5" s="849"/>
-      <c r="Z5" s="850"/>
-      <c r="AA5" t="s" s="851">
+      <c r="P5" s="876"/>
+      <c r="Q5" s="877"/>
+      <c r="R5" s="878"/>
+      <c r="S5" s="879"/>
+      <c r="T5" s="880"/>
+      <c r="U5" s="881"/>
+      <c r="V5" s="882"/>
+      <c r="W5" s="883"/>
+      <c r="X5" s="884"/>
+      <c r="Y5" s="885"/>
+      <c r="Z5" s="886"/>
+      <c r="AA5" t="s" s="887">
         <v>8</v>
       </c>
-      <c r="AB5" s="852"/>
-      <c r="AC5" s="853"/>
-      <c r="AD5" s="854"/>
-      <c r="AE5" s="855"/>
-      <c r="AF5" s="856"/>
-      <c r="AG5" s="857"/>
-      <c r="AH5" s="858"/>
-      <c r="AI5" s="859"/>
-      <c r="AJ5" s="860"/>
-      <c r="AK5" s="861"/>
-      <c r="AL5" s="862"/>
-      <c r="AM5" t="s" s="863">
+      <c r="AB5" s="888"/>
+      <c r="AC5" s="889"/>
+      <c r="AD5" s="890"/>
+      <c r="AE5" s="891"/>
+      <c r="AF5" s="892"/>
+      <c r="AG5" s="893"/>
+      <c r="AH5" s="894"/>
+      <c r="AI5" s="895"/>
+      <c r="AJ5" s="896"/>
+      <c r="AK5" s="897"/>
+      <c r="AL5" s="898"/>
+      <c r="AM5" t="s" s="899">
         <v>9</v>
       </c>
-      <c r="AN5" s="864"/>
-      <c r="AO5" s="865"/>
-      <c r="AP5" s="866"/>
-      <c r="AQ5" s="867"/>
-      <c r="AR5" s="868"/>
-      <c r="AS5" s="869"/>
-      <c r="AT5" s="870"/>
-      <c r="AU5" s="871"/>
-      <c r="AV5" s="872"/>
-      <c r="AW5" s="873"/>
-      <c r="AX5" s="874"/>
-      <c r="AY5" t="s" s="875">
+      <c r="AN5" s="900"/>
+      <c r="AO5" s="901"/>
+      <c r="AP5" s="902"/>
+      <c r="AQ5" s="903"/>
+      <c r="AR5" s="904"/>
+      <c r="AS5" s="905"/>
+      <c r="AT5" s="906"/>
+      <c r="AU5" s="907"/>
+      <c r="AV5" s="908"/>
+      <c r="AW5" s="909"/>
+      <c r="AX5" s="910"/>
+      <c r="AY5" t="s" s="911">
         <v>10</v>
       </c>
-      <c r="AZ5" s="876"/>
-      <c r="BA5" s="877"/>
-      <c r="BB5" s="878"/>
-      <c r="BC5" s="879"/>
-      <c r="BD5" s="880"/>
-      <c r="BE5" s="881"/>
-      <c r="BF5" s="882"/>
-      <c r="BG5" s="883"/>
-      <c r="BH5" s="884"/>
-      <c r="BI5" s="885"/>
-      <c r="BJ5" s="886"/>
-      <c r="BK5" t="s" s="887">
+      <c r="AZ5" s="912"/>
+      <c r="BA5" s="913"/>
+      <c r="BB5" s="914"/>
+      <c r="BC5" s="915"/>
+      <c r="BD5" s="916"/>
+      <c r="BE5" s="917"/>
+      <c r="BF5" s="918"/>
+      <c r="BG5" s="919"/>
+      <c r="BH5" s="920"/>
+      <c r="BI5" s="921"/>
+      <c r="BJ5" s="922"/>
+      <c r="BK5" t="s" s="923">
         <v>11</v>
       </c>
-      <c r="BL5" s="888"/>
-      <c r="BM5" s="889"/>
-      <c r="BN5" s="890"/>
-      <c r="BO5" s="891"/>
-      <c r="BP5" s="892"/>
-      <c r="BQ5" s="893"/>
-      <c r="BR5" s="894"/>
-      <c r="BS5" s="895"/>
-      <c r="BT5" s="896"/>
-      <c r="BU5" s="897"/>
-      <c r="BV5" s="898"/>
-      <c r="BW5" t="s" s="899">
+      <c r="BL5" s="924"/>
+      <c r="BM5" s="925"/>
+      <c r="BN5" s="926"/>
+      <c r="BO5" s="927"/>
+      <c r="BP5" s="928"/>
+      <c r="BQ5" s="929"/>
+      <c r="BR5" s="930"/>
+      <c r="BS5" s="931"/>
+      <c r="BT5" s="932"/>
+      <c r="BU5" s="933"/>
+      <c r="BV5" s="934"/>
+      <c r="BW5" t="s" s="935">
         <v>12</v>
       </c>
-      <c r="BX5" s="900"/>
-      <c r="BY5" s="901"/>
-      <c r="BZ5" s="902"/>
-      <c r="CA5" s="903"/>
-      <c r="CB5" s="904"/>
-      <c r="CC5" s="905"/>
-      <c r="CD5" s="906"/>
-      <c r="CE5" s="907"/>
-      <c r="CF5" s="908"/>
-      <c r="CG5" s="909"/>
-      <c r="CH5" s="910"/>
-      <c r="CI5" t="s" s="911">
+      <c r="BX5" s="936"/>
+      <c r="BY5" s="937"/>
+      <c r="BZ5" s="938"/>
+      <c r="CA5" s="939"/>
+      <c r="CB5" s="940"/>
+      <c r="CC5" s="941"/>
+      <c r="CD5" s="942"/>
+      <c r="CE5" s="943"/>
+      <c r="CF5" s="944"/>
+      <c r="CG5" s="945"/>
+      <c r="CH5" s="946"/>
+      <c r="CI5" t="s" s="947">
         <v>13</v>
       </c>
-      <c r="CJ5" s="912"/>
-      <c r="CK5" s="913"/>
-      <c r="CL5" s="914"/>
-      <c r="CM5" s="915"/>
-      <c r="CN5" s="916"/>
-      <c r="CO5" s="917"/>
-      <c r="CP5" s="918"/>
-      <c r="CQ5" s="919"/>
-      <c r="CR5" s="920"/>
-      <c r="CS5" s="921"/>
-      <c r="CT5" s="922"/>
-      <c r="CU5" t="s" s="923">
+      <c r="CJ5" s="948"/>
+      <c r="CK5" s="949"/>
+      <c r="CL5" s="950"/>
+      <c r="CM5" s="951"/>
+      <c r="CN5" s="952"/>
+      <c r="CO5" s="953"/>
+      <c r="CP5" s="954"/>
+      <c r="CQ5" s="955"/>
+      <c r="CR5" s="956"/>
+      <c r="CS5" s="957"/>
+      <c r="CT5" s="958"/>
+      <c r="CU5" t="s" s="959">
         <v>14</v>
       </c>
-      <c r="CV5" s="924"/>
-      <c r="CW5" s="925"/>
-      <c r="CX5" s="926"/>
-      <c r="CY5" s="927"/>
-      <c r="CZ5" s="928"/>
-      <c r="DA5" s="929"/>
-      <c r="DB5" s="930"/>
-      <c r="DC5" s="931"/>
-      <c r="DD5" s="932"/>
-      <c r="DE5" s="933"/>
-      <c r="DF5" s="934"/>
-      <c r="DG5" t="s" s="935">
+      <c r="CV5" s="960"/>
+      <c r="CW5" s="961"/>
+      <c r="CX5" s="962"/>
+      <c r="CY5" s="963"/>
+      <c r="CZ5" s="964"/>
+      <c r="DA5" s="965"/>
+      <c r="DB5" s="966"/>
+      <c r="DC5" s="967"/>
+      <c r="DD5" s="968"/>
+      <c r="DE5" s="969"/>
+      <c r="DF5" s="970"/>
+      <c r="DG5" t="s" s="971">
         <v>15</v>
       </c>
-      <c r="DH5" s="936"/>
-      <c r="DI5" s="937"/>
-      <c r="DJ5" s="938"/>
-      <c r="DK5" s="939"/>
-      <c r="DL5" s="940"/>
-      <c r="DM5" s="941"/>
-      <c r="DN5" s="942"/>
-      <c r="DO5" s="943"/>
-      <c r="DP5" s="944"/>
-      <c r="DQ5" s="945"/>
-      <c r="DR5" s="946"/>
-      <c r="DS5" t="s" s="947">
+      <c r="DH5" s="972"/>
+      <c r="DI5" s="973"/>
+      <c r="DJ5" s="974"/>
+      <c r="DK5" s="975"/>
+      <c r="DL5" s="976"/>
+      <c r="DM5" s="977"/>
+      <c r="DN5" s="978"/>
+      <c r="DO5" s="979"/>
+      <c r="DP5" s="980"/>
+      <c r="DQ5" s="981"/>
+      <c r="DR5" s="982"/>
+      <c r="DS5" t="s" s="983">
         <v>16</v>
       </c>
-      <c r="DT5" s="948"/>
-      <c r="DU5" s="949"/>
-      <c r="DV5" s="950"/>
-      <c r="DW5" s="951"/>
-      <c r="DX5" s="952"/>
-      <c r="DY5" s="953"/>
-      <c r="DZ5" s="954"/>
-      <c r="EA5" s="955"/>
-      <c r="EB5" s="956"/>
-      <c r="EC5" s="957"/>
-      <c r="ED5" s="958"/>
-      <c r="EE5" t="s" s="959">
+      <c r="DT5" s="984"/>
+      <c r="DU5" s="985"/>
+      <c r="DV5" s="986"/>
+      <c r="DW5" s="987"/>
+      <c r="DX5" s="988"/>
+      <c r="DY5" s="989"/>
+      <c r="DZ5" s="990"/>
+      <c r="EA5" s="991"/>
+      <c r="EB5" s="992"/>
+      <c r="EC5" s="993"/>
+      <c r="ED5" s="994"/>
+      <c r="EE5" t="s" s="995">
         <v>17</v>
       </c>
-      <c r="EF5" s="960"/>
-      <c r="EG5" s="961"/>
-      <c r="EH5" s="962"/>
-      <c r="EI5" s="963"/>
-      <c r="EJ5" s="964"/>
-      <c r="EK5" s="965"/>
-      <c r="EL5" s="966"/>
-      <c r="EM5" s="967"/>
-      <c r="EN5" s="968"/>
-      <c r="EO5" s="969"/>
-      <c r="EP5" s="970"/>
-      <c r="EQ5" t="s" s="971">
+      <c r="EF5" s="996"/>
+      <c r="EG5" s="997"/>
+      <c r="EH5" s="998"/>
+      <c r="EI5" s="999"/>
+      <c r="EJ5" s="1000"/>
+      <c r="EK5" s="1001"/>
+      <c r="EL5" s="1002"/>
+      <c r="EM5" s="1003"/>
+      <c r="EN5" s="1004"/>
+      <c r="EO5" s="1005"/>
+      <c r="EP5" s="1006"/>
+      <c r="EQ5" t="s" s="1007">
         <v>18</v>
       </c>
-      <c r="ER5" s="972"/>
-      <c r="ES5" s="973"/>
-      <c r="ET5" s="974"/>
-      <c r="EU5" s="975"/>
-      <c r="EV5" s="976"/>
-      <c r="EW5" s="977"/>
-      <c r="EX5" s="978"/>
-      <c r="EY5" s="979"/>
-      <c r="EZ5" s="980"/>
-      <c r="FA5" s="981"/>
-      <c r="FB5" s="982"/>
-      <c r="FC5" t="s" s="983">
+      <c r="ER5" s="1008"/>
+      <c r="ES5" s="1009"/>
+      <c r="ET5" s="1010"/>
+      <c r="EU5" s="1011"/>
+      <c r="EV5" s="1012"/>
+      <c r="EW5" s="1013"/>
+      <c r="EX5" s="1014"/>
+      <c r="EY5" s="1015"/>
+      <c r="EZ5" s="1016"/>
+      <c r="FA5" s="1017"/>
+      <c r="FB5" s="1018"/>
+      <c r="FC5" t="s" s="1019">
         <v>19</v>
       </c>
-      <c r="FD5" s="984"/>
-      <c r="FE5" s="985"/>
-      <c r="FF5" s="986"/>
-      <c r="FG5" s="987"/>
-      <c r="FH5" s="988"/>
-      <c r="FI5" s="989"/>
-      <c r="FJ5" s="990"/>
-      <c r="FK5" s="991"/>
-      <c r="FL5" s="992"/>
-      <c r="FM5" s="993"/>
-      <c r="FN5" s="994"/>
-      <c r="FO5" t="s" s="995">
+      <c r="FD5" s="1020"/>
+      <c r="FE5" s="1021"/>
+      <c r="FF5" s="1022"/>
+      <c r="FG5" s="1023"/>
+      <c r="FH5" s="1024"/>
+      <c r="FI5" s="1025"/>
+      <c r="FJ5" s="1026"/>
+      <c r="FK5" s="1027"/>
+      <c r="FL5" s="1028"/>
+      <c r="FM5" s="1029"/>
+      <c r="FN5" s="1030"/>
+      <c r="FO5" t="s" s="1031">
         <v>20</v>
       </c>
-      <c r="FP5" s="996"/>
-      <c r="FQ5" s="997"/>
-      <c r="FR5" s="998"/>
-      <c r="FS5" s="999"/>
-      <c r="FT5" s="1000"/>
-      <c r="FU5" s="1001"/>
-      <c r="FV5" s="1002"/>
-      <c r="FW5" s="1003"/>
-      <c r="FX5" s="1004"/>
-      <c r="FY5" s="1005"/>
-      <c r="FZ5" s="1006"/>
-      <c r="GA5" t="s" s="1007">
+      <c r="FP5" s="1032"/>
+      <c r="FQ5" s="1033"/>
+      <c r="FR5" s="1034"/>
+      <c r="FS5" s="1035"/>
+      <c r="FT5" s="1036"/>
+      <c r="FU5" s="1037"/>
+      <c r="FV5" s="1038"/>
+      <c r="FW5" s="1039"/>
+      <c r="FX5" s="1040"/>
+      <c r="FY5" s="1041"/>
+      <c r="FZ5" s="1042"/>
+      <c r="GA5" t="s" s="1043">
         <v>21</v>
       </c>
-      <c r="GB5" s="1008"/>
-      <c r="GC5" s="1009"/>
-      <c r="GD5" s="1010"/>
-      <c r="GE5" s="1011"/>
-      <c r="GF5" s="1012"/>
-      <c r="GG5" s="1013"/>
-      <c r="GH5" s="1014"/>
-      <c r="GI5" s="1015"/>
-      <c r="GJ5" s="1016"/>
-      <c r="GK5" s="1017"/>
-      <c r="GL5" s="1018"/>
-      <c r="GM5" t="s" s="1019">
+      <c r="GB5" s="1044"/>
+      <c r="GC5" s="1045"/>
+      <c r="GD5" s="1046"/>
+      <c r="GE5" s="1047"/>
+      <c r="GF5" s="1048"/>
+      <c r="GG5" s="1049"/>
+      <c r="GH5" s="1050"/>
+      <c r="GI5" s="1051"/>
+      <c r="GJ5" s="1052"/>
+      <c r="GK5" s="1053"/>
+      <c r="GL5" s="1054"/>
+      <c r="GM5" t="s" s="1055">
         <v>22</v>
       </c>
-      <c r="GN5" s="1020"/>
-      <c r="GO5" s="1021"/>
-      <c r="GP5" s="1022"/>
-      <c r="GQ5" s="1023"/>
-      <c r="GR5" s="1024"/>
-      <c r="GS5" s="1025"/>
-      <c r="GT5" s="1026"/>
-      <c r="GU5" s="1027"/>
-      <c r="GV5" s="1028"/>
-      <c r="GW5" s="1029"/>
-      <c r="GX5" s="1030"/>
-      <c r="GY5" t="s" s="1031">
+      <c r="GN5" s="1056"/>
+      <c r="GO5" s="1057"/>
+      <c r="GP5" s="1058"/>
+      <c r="GQ5" s="1059"/>
+      <c r="GR5" s="1060"/>
+      <c r="GS5" s="1061"/>
+      <c r="GT5" s="1062"/>
+      <c r="GU5" s="1063"/>
+      <c r="GV5" s="1064"/>
+      <c r="GW5" s="1065"/>
+      <c r="GX5" s="1066"/>
+      <c r="GY5" t="s" s="1067">
         <v>23</v>
       </c>
-      <c r="GZ5" s="1032"/>
-      <c r="HA5" s="1033"/>
-      <c r="HB5" s="1034"/>
-      <c r="HC5" s="1035"/>
-      <c r="HD5" s="1036"/>
-      <c r="HE5" s="1037"/>
-      <c r="HF5" s="1038"/>
-      <c r="HG5" s="1039"/>
-      <c r="HH5" s="1040"/>
-      <c r="HI5" s="1041"/>
-      <c r="HJ5" s="1042"/>
-      <c r="HK5" t="s" s="1043">
+      <c r="GZ5" s="1068"/>
+      <c r="HA5" s="1069"/>
+      <c r="HB5" s="1070"/>
+      <c r="HC5" s="1071"/>
+      <c r="HD5" s="1072"/>
+      <c r="HE5" s="1073"/>
+      <c r="HF5" s="1074"/>
+      <c r="HG5" s="1075"/>
+      <c r="HH5" s="1076"/>
+      <c r="HI5" s="1077"/>
+      <c r="HJ5" s="1078"/>
+      <c r="HK5" t="s" s="1079">
         <v>24</v>
       </c>
-      <c r="HL5" s="1044"/>
-      <c r="HM5" s="1045"/>
-      <c r="HN5" s="1046"/>
-      <c r="HO5" s="1047"/>
-      <c r="HP5" s="1048"/>
-      <c r="HQ5" s="1049"/>
-      <c r="HR5" s="1050"/>
-      <c r="HS5" s="1051"/>
-      <c r="HT5" s="1052"/>
-      <c r="HU5" s="1053"/>
-      <c r="HV5" s="1054"/>
-      <c r="HW5" t="s" s="1055">
+      <c r="HL5" s="1080"/>
+      <c r="HM5" s="1081"/>
+      <c r="HN5" s="1082"/>
+      <c r="HO5" s="1083"/>
+      <c r="HP5" s="1084"/>
+      <c r="HQ5" s="1085"/>
+      <c r="HR5" s="1086"/>
+      <c r="HS5" s="1087"/>
+      <c r="HT5" s="1088"/>
+      <c r="HU5" s="1089"/>
+      <c r="HV5" s="1090"/>
+      <c r="HW5" t="s" s="1091">
         <v>25</v>
       </c>
-      <c r="HX5" s="1056"/>
-      <c r="HY5" s="1057"/>
-      <c r="HZ5" s="1058"/>
-      <c r="IA5" s="1059"/>
-      <c r="IB5" s="1060"/>
-      <c r="IC5" s="1061"/>
-      <c r="ID5" s="1062"/>
-      <c r="IE5" s="1063"/>
-      <c r="IF5" s="1064"/>
-      <c r="IG5" s="1065"/>
-      <c r="IH5" s="1066"/>
-      <c r="II5" t="s" s="1067">
+      <c r="HX5" s="1092"/>
+      <c r="HY5" s="1093"/>
+      <c r="HZ5" s="1094"/>
+      <c r="IA5" s="1095"/>
+      <c r="IB5" s="1096"/>
+      <c r="IC5" s="1097"/>
+      <c r="ID5" s="1098"/>
+      <c r="IE5" s="1099"/>
+      <c r="IF5" s="1100"/>
+      <c r="IG5" s="1101"/>
+      <c r="IH5" s="1102"/>
+      <c r="II5" t="s" s="1103">
         <v>26</v>
       </c>
-      <c r="IJ5" s="1068"/>
-      <c r="IK5" s="1069"/>
-      <c r="IL5" s="1070"/>
-      <c r="IM5" s="1071"/>
-      <c r="IN5" s="1072"/>
-      <c r="IO5" s="1073"/>
-      <c r="IP5" s="1074"/>
-      <c r="IQ5" s="1075"/>
-      <c r="IR5" s="1076"/>
-      <c r="IS5" s="1077"/>
-      <c r="IT5" s="1078"/>
-      <c r="IU5" t="s" s="1079">
+      <c r="IJ5" s="1104"/>
+      <c r="IK5" s="1105"/>
+      <c r="IL5" s="1106"/>
+      <c r="IM5" s="1107"/>
+      <c r="IN5" s="1108"/>
+      <c r="IO5" s="1109"/>
+      <c r="IP5" s="1110"/>
+      <c r="IQ5" s="1111"/>
+      <c r="IR5" s="1112"/>
+      <c r="IS5" s="1113"/>
+      <c r="IT5" s="1114"/>
+      <c r="IU5" t="s" s="1115">
         <v>27</v>
       </c>
-      <c r="IV5" s="1080"/>
-      <c r="IW5" s="1081"/>
-      <c r="IX5" s="1082"/>
-      <c r="IY5" s="1083"/>
-      <c r="IZ5" s="1084"/>
-      <c r="JA5" s="1085"/>
-      <c r="JB5" s="1086"/>
-      <c r="JC5" s="1087"/>
-      <c r="JD5" s="1088"/>
-      <c r="JE5" s="1089"/>
-      <c r="JF5" s="1090"/>
+      <c r="IV5" s="1116"/>
+      <c r="IW5" s="1117"/>
+      <c r="IX5" s="1118"/>
+      <c r="IY5" s="1119"/>
+      <c r="IZ5" s="1120"/>
+      <c r="JA5" s="1121"/>
+      <c r="JB5" s="1122"/>
+      <c r="JC5" s="1123"/>
+      <c r="JD5" s="1124"/>
+      <c r="JE5" s="1125"/>
+      <c r="JF5" s="1126"/>
+      <c r="JG5" t="s" s="1127">
+        <v>28</v>
+      </c>
+      <c r="JH5" s="1128"/>
+      <c r="JI5" s="1129"/>
+      <c r="JJ5" s="1130"/>
+      <c r="JK5" s="1131"/>
+      <c r="JL5" s="1132"/>
+      <c r="JM5" s="1133"/>
+      <c r="JN5" s="1134"/>
+      <c r="JO5" s="1135"/>
+      <c r="JP5" s="1136"/>
+      <c r="JQ5" s="1137"/>
+      <c r="JR5" s="1138"/>
     </row>
     <row r="6">
-      <c r="A6" s="1091"/>
-      <c r="B6" s="1092"/>
-      <c r="C6" t="s" s="1093">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1094"/>
-      <c r="E6" s="1095"/>
-      <c r="F6" s="1096"/>
-      <c r="G6" s="1097"/>
-      <c r="H6" s="1098"/>
-      <c r="I6" s="1099"/>
-      <c r="J6" s="1100"/>
-      <c r="K6" s="1101"/>
-      <c r="L6" s="1102"/>
-      <c r="M6" s="1103"/>
-      <c r="N6" s="1104"/>
-      <c r="O6" t="s" s="1105">
-        <v>28</v>
-      </c>
-      <c r="P6" s="1106"/>
-      <c r="Q6" s="1107"/>
-      <c r="R6" s="1108"/>
-      <c r="S6" s="1109"/>
-      <c r="T6" s="1110"/>
-      <c r="U6" s="1111"/>
-      <c r="V6" s="1112"/>
-      <c r="W6" s="1113"/>
-      <c r="X6" s="1114"/>
-      <c r="Y6" s="1115"/>
-      <c r="Z6" s="1116"/>
-      <c r="AA6" t="s" s="1117">
-        <v>28</v>
-      </c>
-      <c r="AB6" s="1118"/>
-      <c r="AC6" s="1119"/>
-      <c r="AD6" s="1120"/>
-      <c r="AE6" s="1121"/>
-      <c r="AF6" s="1122"/>
-      <c r="AG6" s="1123"/>
-      <c r="AH6" s="1124"/>
-      <c r="AI6" s="1125"/>
-      <c r="AJ6" s="1126"/>
-      <c r="AK6" s="1127"/>
-      <c r="AL6" s="1128"/>
-      <c r="AM6" t="s" s="1129">
-        <v>28</v>
-      </c>
-      <c r="AN6" s="1130"/>
-      <c r="AO6" s="1131"/>
-      <c r="AP6" s="1132"/>
-      <c r="AQ6" s="1133"/>
-      <c r="AR6" s="1134"/>
-      <c r="AS6" s="1135"/>
-      <c r="AT6" s="1136"/>
-      <c r="AU6" s="1137"/>
-      <c r="AV6" s="1138"/>
-      <c r="AW6" s="1139"/>
-      <c r="AX6" s="1140"/>
-      <c r="AY6" t="s" s="1141">
-        <v>28</v>
-      </c>
-      <c r="AZ6" s="1142"/>
-      <c r="BA6" s="1143"/>
-      <c r="BB6" s="1144"/>
-      <c r="BC6" s="1145"/>
-      <c r="BD6" s="1146"/>
-      <c r="BE6" s="1147"/>
-      <c r="BF6" s="1148"/>
-      <c r="BG6" s="1149"/>
-      <c r="BH6" s="1150"/>
-      <c r="BI6" s="1151"/>
-      <c r="BJ6" s="1152"/>
-      <c r="BK6" t="s" s="1153">
-        <v>28</v>
-      </c>
-      <c r="BL6" s="1154"/>
-      <c r="BM6" s="1155"/>
-      <c r="BN6" s="1156"/>
-      <c r="BO6" s="1157"/>
-      <c r="BP6" s="1158"/>
-      <c r="BQ6" s="1159"/>
-      <c r="BR6" s="1160"/>
-      <c r="BS6" s="1161"/>
-      <c r="BT6" s="1162"/>
-      <c r="BU6" s="1163"/>
-      <c r="BV6" s="1164"/>
-      <c r="BW6" t="s" s="1165">
-        <v>28</v>
-      </c>
-      <c r="BX6" s="1166"/>
-      <c r="BY6" s="1167"/>
-      <c r="BZ6" s="1168"/>
-      <c r="CA6" s="1169"/>
-      <c r="CB6" s="1170"/>
-      <c r="CC6" s="1171"/>
-      <c r="CD6" s="1172"/>
-      <c r="CE6" s="1173"/>
-      <c r="CF6" s="1174"/>
-      <c r="CG6" s="1175"/>
-      <c r="CH6" s="1176"/>
-      <c r="CI6" t="s" s="1177">
-        <v>28</v>
-      </c>
-      <c r="CJ6" s="1178"/>
-      <c r="CK6" s="1179"/>
-      <c r="CL6" s="1180"/>
-      <c r="CM6" s="1181"/>
-      <c r="CN6" s="1182"/>
-      <c r="CO6" s="1183"/>
-      <c r="CP6" s="1184"/>
-      <c r="CQ6" s="1185"/>
-      <c r="CR6" s="1186"/>
-      <c r="CS6" s="1187"/>
-      <c r="CT6" s="1188"/>
-      <c r="CU6" t="s" s="1189">
-        <v>28</v>
-      </c>
-      <c r="CV6" s="1190"/>
-      <c r="CW6" s="1191"/>
-      <c r="CX6" s="1192"/>
-      <c r="CY6" s="1193"/>
-      <c r="CZ6" s="1194"/>
-      <c r="DA6" s="1195"/>
-      <c r="DB6" s="1196"/>
-      <c r="DC6" s="1197"/>
-      <c r="DD6" s="1198"/>
-      <c r="DE6" s="1199"/>
-      <c r="DF6" s="1200"/>
-      <c r="DG6" t="s" s="1201">
-        <v>28</v>
-      </c>
-      <c r="DH6" s="1202"/>
-      <c r="DI6" s="1203"/>
-      <c r="DJ6" s="1204"/>
-      <c r="DK6" s="1205"/>
-      <c r="DL6" s="1206"/>
-      <c r="DM6" s="1207"/>
-      <c r="DN6" s="1208"/>
-      <c r="DO6" s="1209"/>
-      <c r="DP6" s="1210"/>
-      <c r="DQ6" s="1211"/>
-      <c r="DR6" s="1212"/>
-      <c r="DS6" t="s" s="1213">
-        <v>28</v>
-      </c>
-      <c r="DT6" s="1214"/>
-      <c r="DU6" s="1215"/>
-      <c r="DV6" s="1216"/>
-      <c r="DW6" s="1217"/>
-      <c r="DX6" s="1218"/>
-      <c r="DY6" s="1219"/>
-      <c r="DZ6" s="1220"/>
-      <c r="EA6" s="1221"/>
-      <c r="EB6" s="1222"/>
-      <c r="EC6" s="1223"/>
-      <c r="ED6" s="1224"/>
-      <c r="EE6" t="s" s="1225">
-        <v>28</v>
-      </c>
-      <c r="EF6" s="1226"/>
-      <c r="EG6" s="1227"/>
-      <c r="EH6" s="1228"/>
-      <c r="EI6" s="1229"/>
-      <c r="EJ6" s="1230"/>
-      <c r="EK6" s="1231"/>
-      <c r="EL6" s="1232"/>
-      <c r="EM6" s="1233"/>
-      <c r="EN6" s="1234"/>
-      <c r="EO6" s="1235"/>
-      <c r="EP6" s="1236"/>
-      <c r="EQ6" t="s" s="1237">
-        <v>28</v>
-      </c>
-      <c r="ER6" s="1238"/>
-      <c r="ES6" s="1239"/>
-      <c r="ET6" s="1240"/>
-      <c r="EU6" s="1241"/>
-      <c r="EV6" s="1242"/>
-      <c r="EW6" s="1243"/>
-      <c r="EX6" s="1244"/>
-      <c r="EY6" s="1245"/>
-      <c r="EZ6" s="1246"/>
-      <c r="FA6" s="1247"/>
-      <c r="FB6" s="1248"/>
-      <c r="FC6" t="s" s="1249">
-        <v>28</v>
-      </c>
-      <c r="FD6" s="1250"/>
-      <c r="FE6" s="1251"/>
-      <c r="FF6" s="1252"/>
-      <c r="FG6" s="1253"/>
-      <c r="FH6" s="1254"/>
-      <c r="FI6" s="1255"/>
-      <c r="FJ6" s="1256"/>
-      <c r="FK6" s="1257"/>
-      <c r="FL6" s="1258"/>
-      <c r="FM6" s="1259"/>
-      <c r="FN6" s="1260"/>
-      <c r="FO6" t="s" s="1261">
-        <v>28</v>
-      </c>
-      <c r="FP6" s="1262"/>
-      <c r="FQ6" s="1263"/>
-      <c r="FR6" s="1264"/>
-      <c r="FS6" s="1265"/>
-      <c r="FT6" s="1266"/>
-      <c r="FU6" s="1267"/>
-      <c r="FV6" s="1268"/>
-      <c r="FW6" s="1269"/>
-      <c r="FX6" s="1270"/>
-      <c r="FY6" s="1271"/>
-      <c r="FZ6" s="1272"/>
-      <c r="GA6" t="s" s="1273">
-        <v>28</v>
-      </c>
-      <c r="GB6" s="1274"/>
-      <c r="GC6" s="1275"/>
-      <c r="GD6" s="1276"/>
-      <c r="GE6" s="1277"/>
-      <c r="GF6" s="1278"/>
-      <c r="GG6" s="1279"/>
-      <c r="GH6" s="1280"/>
-      <c r="GI6" s="1281"/>
-      <c r="GJ6" s="1282"/>
-      <c r="GK6" s="1283"/>
-      <c r="GL6" s="1284"/>
-      <c r="GM6" t="s" s="1285">
-        <v>28</v>
-      </c>
-      <c r="GN6" s="1286"/>
-      <c r="GO6" s="1287"/>
-      <c r="GP6" s="1288"/>
-      <c r="GQ6" s="1289"/>
-      <c r="GR6" s="1290"/>
-      <c r="GS6" s="1291"/>
-      <c r="GT6" s="1292"/>
-      <c r="GU6" s="1293"/>
-      <c r="GV6" s="1294"/>
-      <c r="GW6" s="1295"/>
-      <c r="GX6" s="1296"/>
-      <c r="GY6" t="s" s="1297">
-        <v>28</v>
-      </c>
-      <c r="GZ6" s="1298"/>
-      <c r="HA6" s="1299"/>
-      <c r="HB6" s="1300"/>
-      <c r="HC6" s="1301"/>
-      <c r="HD6" s="1302"/>
-      <c r="HE6" s="1303"/>
-      <c r="HF6" s="1304"/>
-      <c r="HG6" s="1305"/>
-      <c r="HH6" s="1306"/>
-      <c r="HI6" s="1307"/>
-      <c r="HJ6" s="1308"/>
-      <c r="HK6" t="s" s="1309">
-        <v>28</v>
-      </c>
-      <c r="HL6" s="1310"/>
-      <c r="HM6" s="1311"/>
-      <c r="HN6" s="1312"/>
-      <c r="HO6" s="1313"/>
-      <c r="HP6" s="1314"/>
-      <c r="HQ6" s="1315"/>
-      <c r="HR6" s="1316"/>
-      <c r="HS6" s="1317"/>
-      <c r="HT6" s="1318"/>
-      <c r="HU6" s="1319"/>
-      <c r="HV6" s="1320"/>
-      <c r="HW6" t="s" s="1321">
-        <v>28</v>
-      </c>
-      <c r="HX6" s="1322"/>
-      <c r="HY6" s="1323"/>
-      <c r="HZ6" s="1324"/>
-      <c r="IA6" s="1325"/>
-      <c r="IB6" s="1326"/>
-      <c r="IC6" s="1327"/>
-      <c r="ID6" s="1328"/>
-      <c r="IE6" s="1329"/>
-      <c r="IF6" s="1330"/>
-      <c r="IG6" s="1331"/>
-      <c r="IH6" s="1332"/>
-      <c r="II6" t="s" s="1333">
-        <v>28</v>
-      </c>
-      <c r="IJ6" s="1334"/>
-      <c r="IK6" s="1335"/>
-      <c r="IL6" s="1336"/>
-      <c r="IM6" s="1337"/>
-      <c r="IN6" s="1338"/>
-      <c r="IO6" s="1339"/>
-      <c r="IP6" s="1340"/>
-      <c r="IQ6" s="1341"/>
-      <c r="IR6" s="1342"/>
-      <c r="IS6" s="1343"/>
-      <c r="IT6" s="1344"/>
-      <c r="IU6" t="s" s="1345">
-        <v>28</v>
-      </c>
-      <c r="IV6" s="1346"/>
-      <c r="IW6" s="1347"/>
-      <c r="IX6" s="1348"/>
-      <c r="IY6" s="1349"/>
-      <c r="IZ6" s="1350"/>
-      <c r="JA6" s="1351"/>
-      <c r="JB6" s="1352"/>
-      <c r="JC6" s="1353"/>
-      <c r="JD6" s="1354"/>
-      <c r="JE6" s="1355"/>
-      <c r="JF6" s="1356"/>
+      <c r="A6" s="1139"/>
+      <c r="B6" s="1140"/>
+      <c r="C6" t="s" s="1141">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1142"/>
+      <c r="E6" s="1143"/>
+      <c r="F6" s="1144"/>
+      <c r="G6" s="1145"/>
+      <c r="H6" s="1146"/>
+      <c r="I6" s="1147"/>
+      <c r="J6" s="1148"/>
+      <c r="K6" s="1149"/>
+      <c r="L6" s="1150"/>
+      <c r="M6" s="1151"/>
+      <c r="N6" s="1152"/>
+      <c r="O6" t="s" s="1153">
+        <v>29</v>
+      </c>
+      <c r="P6" s="1154"/>
+      <c r="Q6" s="1155"/>
+      <c r="R6" s="1156"/>
+      <c r="S6" s="1157"/>
+      <c r="T6" s="1158"/>
+      <c r="U6" s="1159"/>
+      <c r="V6" s="1160"/>
+      <c r="W6" s="1161"/>
+      <c r="X6" s="1162"/>
+      <c r="Y6" s="1163"/>
+      <c r="Z6" s="1164"/>
+      <c r="AA6" t="s" s="1165">
+        <v>29</v>
+      </c>
+      <c r="AB6" s="1166"/>
+      <c r="AC6" s="1167"/>
+      <c r="AD6" s="1168"/>
+      <c r="AE6" s="1169"/>
+      <c r="AF6" s="1170"/>
+      <c r="AG6" s="1171"/>
+      <c r="AH6" s="1172"/>
+      <c r="AI6" s="1173"/>
+      <c r="AJ6" s="1174"/>
+      <c r="AK6" s="1175"/>
+      <c r="AL6" s="1176"/>
+      <c r="AM6" t="s" s="1177">
+        <v>29</v>
+      </c>
+      <c r="AN6" s="1178"/>
+      <c r="AO6" s="1179"/>
+      <c r="AP6" s="1180"/>
+      <c r="AQ6" s="1181"/>
+      <c r="AR6" s="1182"/>
+      <c r="AS6" s="1183"/>
+      <c r="AT6" s="1184"/>
+      <c r="AU6" s="1185"/>
+      <c r="AV6" s="1186"/>
+      <c r="AW6" s="1187"/>
+      <c r="AX6" s="1188"/>
+      <c r="AY6" t="s" s="1189">
+        <v>29</v>
+      </c>
+      <c r="AZ6" s="1190"/>
+      <c r="BA6" s="1191"/>
+      <c r="BB6" s="1192"/>
+      <c r="BC6" s="1193"/>
+      <c r="BD6" s="1194"/>
+      <c r="BE6" s="1195"/>
+      <c r="BF6" s="1196"/>
+      <c r="BG6" s="1197"/>
+      <c r="BH6" s="1198"/>
+      <c r="BI6" s="1199"/>
+      <c r="BJ6" s="1200"/>
+      <c r="BK6" t="s" s="1201">
+        <v>29</v>
+      </c>
+      <c r="BL6" s="1202"/>
+      <c r="BM6" s="1203"/>
+      <c r="BN6" s="1204"/>
+      <c r="BO6" s="1205"/>
+      <c r="BP6" s="1206"/>
+      <c r="BQ6" s="1207"/>
+      <c r="BR6" s="1208"/>
+      <c r="BS6" s="1209"/>
+      <c r="BT6" s="1210"/>
+      <c r="BU6" s="1211"/>
+      <c r="BV6" s="1212"/>
+      <c r="BW6" t="s" s="1213">
+        <v>29</v>
+      </c>
+      <c r="BX6" s="1214"/>
+      <c r="BY6" s="1215"/>
+      <c r="BZ6" s="1216"/>
+      <c r="CA6" s="1217"/>
+      <c r="CB6" s="1218"/>
+      <c r="CC6" s="1219"/>
+      <c r="CD6" s="1220"/>
+      <c r="CE6" s="1221"/>
+      <c r="CF6" s="1222"/>
+      <c r="CG6" s="1223"/>
+      <c r="CH6" s="1224"/>
+      <c r="CI6" t="s" s="1225">
+        <v>29</v>
+      </c>
+      <c r="CJ6" s="1226"/>
+      <c r="CK6" s="1227"/>
+      <c r="CL6" s="1228"/>
+      <c r="CM6" s="1229"/>
+      <c r="CN6" s="1230"/>
+      <c r="CO6" s="1231"/>
+      <c r="CP6" s="1232"/>
+      <c r="CQ6" s="1233"/>
+      <c r="CR6" s="1234"/>
+      <c r="CS6" s="1235"/>
+      <c r="CT6" s="1236"/>
+      <c r="CU6" t="s" s="1237">
+        <v>29</v>
+      </c>
+      <c r="CV6" s="1238"/>
+      <c r="CW6" s="1239"/>
+      <c r="CX6" s="1240"/>
+      <c r="CY6" s="1241"/>
+      <c r="CZ6" s="1242"/>
+      <c r="DA6" s="1243"/>
+      <c r="DB6" s="1244"/>
+      <c r="DC6" s="1245"/>
+      <c r="DD6" s="1246"/>
+      <c r="DE6" s="1247"/>
+      <c r="DF6" s="1248"/>
+      <c r="DG6" t="s" s="1249">
+        <v>29</v>
+      </c>
+      <c r="DH6" s="1250"/>
+      <c r="DI6" s="1251"/>
+      <c r="DJ6" s="1252"/>
+      <c r="DK6" s="1253"/>
+      <c r="DL6" s="1254"/>
+      <c r="DM6" s="1255"/>
+      <c r="DN6" s="1256"/>
+      <c r="DO6" s="1257"/>
+      <c r="DP6" s="1258"/>
+      <c r="DQ6" s="1259"/>
+      <c r="DR6" s="1260"/>
+      <c r="DS6" t="s" s="1261">
+        <v>29</v>
+      </c>
+      <c r="DT6" s="1262"/>
+      <c r="DU6" s="1263"/>
+      <c r="DV6" s="1264"/>
+      <c r="DW6" s="1265"/>
+      <c r="DX6" s="1266"/>
+      <c r="DY6" s="1267"/>
+      <c r="DZ6" s="1268"/>
+      <c r="EA6" s="1269"/>
+      <c r="EB6" s="1270"/>
+      <c r="EC6" s="1271"/>
+      <c r="ED6" s="1272"/>
+      <c r="EE6" t="s" s="1273">
+        <v>29</v>
+      </c>
+      <c r="EF6" s="1274"/>
+      <c r="EG6" s="1275"/>
+      <c r="EH6" s="1276"/>
+      <c r="EI6" s="1277"/>
+      <c r="EJ6" s="1278"/>
+      <c r="EK6" s="1279"/>
+      <c r="EL6" s="1280"/>
+      <c r="EM6" s="1281"/>
+      <c r="EN6" s="1282"/>
+      <c r="EO6" s="1283"/>
+      <c r="EP6" s="1284"/>
+      <c r="EQ6" t="s" s="1285">
+        <v>29</v>
+      </c>
+      <c r="ER6" s="1286"/>
+      <c r="ES6" s="1287"/>
+      <c r="ET6" s="1288"/>
+      <c r="EU6" s="1289"/>
+      <c r="EV6" s="1290"/>
+      <c r="EW6" s="1291"/>
+      <c r="EX6" s="1292"/>
+      <c r="EY6" s="1293"/>
+      <c r="EZ6" s="1294"/>
+      <c r="FA6" s="1295"/>
+      <c r="FB6" s="1296"/>
+      <c r="FC6" t="s" s="1297">
+        <v>29</v>
+      </c>
+      <c r="FD6" s="1298"/>
+      <c r="FE6" s="1299"/>
+      <c r="FF6" s="1300"/>
+      <c r="FG6" s="1301"/>
+      <c r="FH6" s="1302"/>
+      <c r="FI6" s="1303"/>
+      <c r="FJ6" s="1304"/>
+      <c r="FK6" s="1305"/>
+      <c r="FL6" s="1306"/>
+      <c r="FM6" s="1307"/>
+      <c r="FN6" s="1308"/>
+      <c r="FO6" t="s" s="1309">
+        <v>29</v>
+      </c>
+      <c r="FP6" s="1310"/>
+      <c r="FQ6" s="1311"/>
+      <c r="FR6" s="1312"/>
+      <c r="FS6" s="1313"/>
+      <c r="FT6" s="1314"/>
+      <c r="FU6" s="1315"/>
+      <c r="FV6" s="1316"/>
+      <c r="FW6" s="1317"/>
+      <c r="FX6" s="1318"/>
+      <c r="FY6" s="1319"/>
+      <c r="FZ6" s="1320"/>
+      <c r="GA6" t="s" s="1321">
+        <v>29</v>
+      </c>
+      <c r="GB6" s="1322"/>
+      <c r="GC6" s="1323"/>
+      <c r="GD6" s="1324"/>
+      <c r="GE6" s="1325"/>
+      <c r="GF6" s="1326"/>
+      <c r="GG6" s="1327"/>
+      <c r="GH6" s="1328"/>
+      <c r="GI6" s="1329"/>
+      <c r="GJ6" s="1330"/>
+      <c r="GK6" s="1331"/>
+      <c r="GL6" s="1332"/>
+      <c r="GM6" t="s" s="1333">
+        <v>29</v>
+      </c>
+      <c r="GN6" s="1334"/>
+      <c r="GO6" s="1335"/>
+      <c r="GP6" s="1336"/>
+      <c r="GQ6" s="1337"/>
+      <c r="GR6" s="1338"/>
+      <c r="GS6" s="1339"/>
+      <c r="GT6" s="1340"/>
+      <c r="GU6" s="1341"/>
+      <c r="GV6" s="1342"/>
+      <c r="GW6" s="1343"/>
+      <c r="GX6" s="1344"/>
+      <c r="GY6" t="s" s="1345">
+        <v>29</v>
+      </c>
+      <c r="GZ6" s="1346"/>
+      <c r="HA6" s="1347"/>
+      <c r="HB6" s="1348"/>
+      <c r="HC6" s="1349"/>
+      <c r="HD6" s="1350"/>
+      <c r="HE6" s="1351"/>
+      <c r="HF6" s="1352"/>
+      <c r="HG6" s="1353"/>
+      <c r="HH6" s="1354"/>
+      <c r="HI6" s="1355"/>
+      <c r="HJ6" s="1356"/>
+      <c r="HK6" t="s" s="1357">
+        <v>29</v>
+      </c>
+      <c r="HL6" s="1358"/>
+      <c r="HM6" s="1359"/>
+      <c r="HN6" s="1360"/>
+      <c r="HO6" s="1361"/>
+      <c r="HP6" s="1362"/>
+      <c r="HQ6" s="1363"/>
+      <c r="HR6" s="1364"/>
+      <c r="HS6" s="1365"/>
+      <c r="HT6" s="1366"/>
+      <c r="HU6" s="1367"/>
+      <c r="HV6" s="1368"/>
+      <c r="HW6" t="s" s="1369">
+        <v>29</v>
+      </c>
+      <c r="HX6" s="1370"/>
+      <c r="HY6" s="1371"/>
+      <c r="HZ6" s="1372"/>
+      <c r="IA6" s="1373"/>
+      <c r="IB6" s="1374"/>
+      <c r="IC6" s="1375"/>
+      <c r="ID6" s="1376"/>
+      <c r="IE6" s="1377"/>
+      <c r="IF6" s="1378"/>
+      <c r="IG6" s="1379"/>
+      <c r="IH6" s="1380"/>
+      <c r="II6" t="s" s="1381">
+        <v>29</v>
+      </c>
+      <c r="IJ6" s="1382"/>
+      <c r="IK6" s="1383"/>
+      <c r="IL6" s="1384"/>
+      <c r="IM6" s="1385"/>
+      <c r="IN6" s="1386"/>
+      <c r="IO6" s="1387"/>
+      <c r="IP6" s="1388"/>
+      <c r="IQ6" s="1389"/>
+      <c r="IR6" s="1390"/>
+      <c r="IS6" s="1391"/>
+      <c r="IT6" s="1392"/>
+      <c r="IU6" t="s" s="1393">
+        <v>29</v>
+      </c>
+      <c r="IV6" s="1394"/>
+      <c r="IW6" s="1395"/>
+      <c r="IX6" s="1396"/>
+      <c r="IY6" s="1397"/>
+      <c r="IZ6" s="1398"/>
+      <c r="JA6" s="1399"/>
+      <c r="JB6" s="1400"/>
+      <c r="JC6" s="1401"/>
+      <c r="JD6" s="1402"/>
+      <c r="JE6" s="1403"/>
+      <c r="JF6" s="1404"/>
+      <c r="JG6" t="s" s="1405">
+        <v>29</v>
+      </c>
+      <c r="JH6" s="1406"/>
+      <c r="JI6" s="1407"/>
+      <c r="JJ6" s="1408"/>
+      <c r="JK6" s="1409"/>
+      <c r="JL6" s="1410"/>
+      <c r="JM6" s="1411"/>
+      <c r="JN6" s="1412"/>
+      <c r="JO6" s="1413"/>
+      <c r="JP6" s="1414"/>
+      <c r="JQ6" s="1415"/>
+      <c r="JR6" s="1416"/>
     </row>
     <row r="7">
-      <c r="A7" s="1357"/>
-      <c r="B7" s="1358"/>
-      <c r="C7" t="s" s="1359">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s" s="1360">
+      <c r="A7" s="1417"/>
+      <c r="B7" s="1418"/>
+      <c r="C7" t="s" s="1419">
         <v>30</v>
       </c>
-      <c r="E7" t="s" s="1361">
+      <c r="D7" t="s" s="1420">
         <v>31</v>
       </c>
-      <c r="F7" t="s" s="1362">
+      <c r="E7" t="s" s="1421">
         <v>32</v>
       </c>
-      <c r="G7" t="s" s="1363">
+      <c r="F7" t="s" s="1422">
         <v>33</v>
       </c>
-      <c r="H7" t="s" s="1364">
+      <c r="G7" t="s" s="1423">
         <v>34</v>
       </c>
-      <c r="I7" t="s" s="1365">
+      <c r="H7" t="s" s="1424">
         <v>35</v>
       </c>
-      <c r="J7" t="s" s="1366">
+      <c r="I7" t="s" s="1425">
         <v>36</v>
       </c>
-      <c r="K7" t="s" s="1367">
+      <c r="J7" t="s" s="1426">
         <v>37</v>
       </c>
-      <c r="L7" t="s" s="1368">
+      <c r="K7" t="s" s="1427">
         <v>38</v>
       </c>
-      <c r="M7" t="s" s="1369">
+      <c r="L7" t="s" s="1428">
         <v>39</v>
       </c>
-      <c r="N7" t="s" s="1370">
+      <c r="M7" t="s" s="1429">
         <v>40</v>
       </c>
-      <c r="O7" t="s" s="1371">
-        <v>29</v>
-      </c>
-      <c r="P7" t="s" s="1372">
+      <c r="N7" t="s" s="1430">
+        <v>41</v>
+      </c>
+      <c r="O7" t="s" s="1431">
         <v>30</v>
       </c>
-      <c r="Q7" t="s" s="1373">
+      <c r="P7" t="s" s="1432">
         <v>31</v>
       </c>
-      <c r="R7" t="s" s="1374">
+      <c r="Q7" t="s" s="1433">
         <v>32</v>
       </c>
-      <c r="S7" t="s" s="1375">
+      <c r="R7" t="s" s="1434">
         <v>33</v>
       </c>
-      <c r="T7" t="s" s="1376">
+      <c r="S7" t="s" s="1435">
         <v>34</v>
       </c>
-      <c r="U7" t="s" s="1377">
+      <c r="T7" t="s" s="1436">
         <v>35</v>
       </c>
-      <c r="V7" t="s" s="1378">
+      <c r="U7" t="s" s="1437">
         <v>36</v>
       </c>
-      <c r="W7" t="s" s="1379">
+      <c r="V7" t="s" s="1438">
         <v>37</v>
       </c>
-      <c r="X7" t="s" s="1380">
+      <c r="W7" t="s" s="1439">
         <v>38</v>
       </c>
-      <c r="Y7" t="s" s="1381">
+      <c r="X7" t="s" s="1440">
         <v>39</v>
       </c>
-      <c r="Z7" t="s" s="1382">
+      <c r="Y7" t="s" s="1441">
         <v>40</v>
       </c>
-      <c r="AA7" t="s" s="1383">
-        <v>29</v>
-      </c>
-      <c r="AB7" t="s" s="1384">
+      <c r="Z7" t="s" s="1442">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="s" s="1443">
         <v>30</v>
       </c>
-      <c r="AC7" t="s" s="1385">
+      <c r="AB7" t="s" s="1444">
         <v>31</v>
       </c>
-      <c r="AD7" t="s" s="1386">
+      <c r="AC7" t="s" s="1445">
         <v>32</v>
       </c>
-      <c r="AE7" t="s" s="1387">
+      <c r="AD7" t="s" s="1446">
         <v>33</v>
       </c>
-      <c r="AF7" t="s" s="1388">
+      <c r="AE7" t="s" s="1447">
         <v>34</v>
       </c>
-      <c r="AG7" t="s" s="1389">
+      <c r="AF7" t="s" s="1448">
         <v>35</v>
       </c>
-      <c r="AH7" t="s" s="1390">
+      <c r="AG7" t="s" s="1449">
         <v>36</v>
       </c>
-      <c r="AI7" t="s" s="1391">
+      <c r="AH7" t="s" s="1450">
         <v>37</v>
       </c>
-      <c r="AJ7" t="s" s="1392">
+      <c r="AI7" t="s" s="1451">
         <v>38</v>
       </c>
-      <c r="AK7" t="s" s="1393">
+      <c r="AJ7" t="s" s="1452">
         <v>39</v>
       </c>
-      <c r="AL7" t="s" s="1394">
+      <c r="AK7" t="s" s="1453">
         <v>40</v>
       </c>
-      <c r="AM7" t="s" s="1395">
-        <v>29</v>
-      </c>
-      <c r="AN7" t="s" s="1396">
+      <c r="AL7" t="s" s="1454">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="s" s="1455">
         <v>30</v>
       </c>
-      <c r="AO7" t="s" s="1397">
+      <c r="AN7" t="s" s="1456">
         <v>31</v>
       </c>
-      <c r="AP7" t="s" s="1398">
+      <c r="AO7" t="s" s="1457">
         <v>32</v>
       </c>
-      <c r="AQ7" t="s" s="1399">
+      <c r="AP7" t="s" s="1458">
         <v>33</v>
       </c>
-      <c r="AR7" t="s" s="1400">
+      <c r="AQ7" t="s" s="1459">
         <v>34</v>
       </c>
-      <c r="AS7" t="s" s="1401">
+      <c r="AR7" t="s" s="1460">
         <v>35</v>
       </c>
-      <c r="AT7" t="s" s="1402">
+      <c r="AS7" t="s" s="1461">
         <v>36</v>
       </c>
-      <c r="AU7" t="s" s="1403">
+      <c r="AT7" t="s" s="1462">
         <v>37</v>
       </c>
-      <c r="AV7" t="s" s="1404">
+      <c r="AU7" t="s" s="1463">
         <v>38</v>
       </c>
-      <c r="AW7" t="s" s="1405">
+      <c r="AV7" t="s" s="1464">
         <v>39</v>
       </c>
-      <c r="AX7" t="s" s="1406">
+      <c r="AW7" t="s" s="1465">
         <v>40</v>
       </c>
-      <c r="AY7" t="s" s="1407">
-        <v>29</v>
-      </c>
-      <c r="AZ7" t="s" s="1408">
+      <c r="AX7" t="s" s="1466">
+        <v>41</v>
+      </c>
+      <c r="AY7" t="s" s="1467">
         <v>30</v>
       </c>
-      <c r="BA7" t="s" s="1409">
+      <c r="AZ7" t="s" s="1468">
         <v>31</v>
       </c>
-      <c r="BB7" t="s" s="1410">
+      <c r="BA7" t="s" s="1469">
         <v>32</v>
       </c>
-      <c r="BC7" t="s" s="1411">
+      <c r="BB7" t="s" s="1470">
         <v>33</v>
       </c>
-      <c r="BD7" t="s" s="1412">
+      <c r="BC7" t="s" s="1471">
         <v>34</v>
       </c>
-      <c r="BE7" t="s" s="1413">
+      <c r="BD7" t="s" s="1472">
         <v>35</v>
       </c>
-      <c r="BF7" t="s" s="1414">
+      <c r="BE7" t="s" s="1473">
         <v>36</v>
       </c>
-      <c r="BG7" t="s" s="1415">
+      <c r="BF7" t="s" s="1474">
         <v>37</v>
       </c>
-      <c r="BH7" t="s" s="1416">
+      <c r="BG7" t="s" s="1475">
         <v>38</v>
       </c>
-      <c r="BI7" t="s" s="1417">
+      <c r="BH7" t="s" s="1476">
         <v>39</v>
       </c>
-      <c r="BJ7" t="s" s="1418">
+      <c r="BI7" t="s" s="1477">
         <v>40</v>
       </c>
-      <c r="BK7" t="s" s="1419">
-        <v>29</v>
-      </c>
-      <c r="BL7" t="s" s="1420">
+      <c r="BJ7" t="s" s="1478">
+        <v>41</v>
+      </c>
+      <c r="BK7" t="s" s="1479">
         <v>30</v>
       </c>
-      <c r="BM7" t="s" s="1421">
+      <c r="BL7" t="s" s="1480">
         <v>31</v>
       </c>
-      <c r="BN7" t="s" s="1422">
+      <c r="BM7" t="s" s="1481">
         <v>32</v>
       </c>
-      <c r="BO7" t="s" s="1423">
+      <c r="BN7" t="s" s="1482">
         <v>33</v>
       </c>
-      <c r="BP7" t="s" s="1424">
+      <c r="BO7" t="s" s="1483">
         <v>34</v>
       </c>
-      <c r="BQ7" t="s" s="1425">
+      <c r="BP7" t="s" s="1484">
         <v>35</v>
       </c>
-      <c r="BR7" t="s" s="1426">
+      <c r="BQ7" t="s" s="1485">
         <v>36</v>
       </c>
-      <c r="BS7" t="s" s="1427">
+      <c r="BR7" t="s" s="1486">
         <v>37</v>
       </c>
-      <c r="BT7" t="s" s="1428">
+      <c r="BS7" t="s" s="1487">
         <v>38</v>
       </c>
-      <c r="BU7" t="s" s="1429">
+      <c r="BT7" t="s" s="1488">
         <v>39</v>
       </c>
-      <c r="BV7" t="s" s="1430">
+      <c r="BU7" t="s" s="1489">
         <v>40</v>
       </c>
-      <c r="BW7" t="s" s="1431">
-        <v>29</v>
-      </c>
-      <c r="BX7" t="s" s="1432">
+      <c r="BV7" t="s" s="1490">
+        <v>41</v>
+      </c>
+      <c r="BW7" t="s" s="1491">
         <v>30</v>
       </c>
-      <c r="BY7" t="s" s="1433">
+      <c r="BX7" t="s" s="1492">
         <v>31</v>
       </c>
-      <c r="BZ7" t="s" s="1434">
+      <c r="BY7" t="s" s="1493">
         <v>32</v>
       </c>
-      <c r="CA7" t="s" s="1435">
+      <c r="BZ7" t="s" s="1494">
         <v>33</v>
       </c>
-      <c r="CB7" t="s" s="1436">
+      <c r="CA7" t="s" s="1495">
         <v>34</v>
       </c>
-      <c r="CC7" t="s" s="1437">
+      <c r="CB7" t="s" s="1496">
         <v>35</v>
       </c>
-      <c r="CD7" t="s" s="1438">
+      <c r="CC7" t="s" s="1497">
         <v>36</v>
       </c>
-      <c r="CE7" t="s" s="1439">
+      <c r="CD7" t="s" s="1498">
         <v>37</v>
       </c>
-      <c r="CF7" t="s" s="1440">
+      <c r="CE7" t="s" s="1499">
         <v>38</v>
       </c>
-      <c r="CG7" t="s" s="1441">
+      <c r="CF7" t="s" s="1500">
         <v>39</v>
       </c>
-      <c r="CH7" t="s" s="1442">
+      <c r="CG7" t="s" s="1501">
         <v>40</v>
       </c>
-      <c r="CI7" t="s" s="1443">
-        <v>29</v>
-      </c>
-      <c r="CJ7" t="s" s="1444">
+      <c r="CH7" t="s" s="1502">
+        <v>41</v>
+      </c>
+      <c r="CI7" t="s" s="1503">
         <v>30</v>
       </c>
-      <c r="CK7" t="s" s="1445">
+      <c r="CJ7" t="s" s="1504">
         <v>31</v>
       </c>
-      <c r="CL7" t="s" s="1446">
+      <c r="CK7" t="s" s="1505">
         <v>32</v>
       </c>
-      <c r="CM7" t="s" s="1447">
+      <c r="CL7" t="s" s="1506">
         <v>33</v>
       </c>
-      <c r="CN7" t="s" s="1448">
+      <c r="CM7" t="s" s="1507">
         <v>34</v>
       </c>
-      <c r="CO7" t="s" s="1449">
+      <c r="CN7" t="s" s="1508">
         <v>35</v>
       </c>
-      <c r="CP7" t="s" s="1450">
+      <c r="CO7" t="s" s="1509">
         <v>36</v>
       </c>
-      <c r="CQ7" t="s" s="1451">
+      <c r="CP7" t="s" s="1510">
         <v>37</v>
       </c>
-      <c r="CR7" t="s" s="1452">
+      <c r="CQ7" t="s" s="1511">
         <v>38</v>
       </c>
-      <c r="CS7" t="s" s="1453">
+      <c r="CR7" t="s" s="1512">
         <v>39</v>
       </c>
-      <c r="CT7" t="s" s="1454">
+      <c r="CS7" t="s" s="1513">
         <v>40</v>
       </c>
-      <c r="CU7" t="s" s="1455">
-        <v>29</v>
-      </c>
-      <c r="CV7" t="s" s="1456">
+      <c r="CT7" t="s" s="1514">
+        <v>41</v>
+      </c>
+      <c r="CU7" t="s" s="1515">
         <v>30</v>
       </c>
-      <c r="CW7" t="s" s="1457">
+      <c r="CV7" t="s" s="1516">
         <v>31</v>
       </c>
-      <c r="CX7" t="s" s="1458">
+      <c r="CW7" t="s" s="1517">
         <v>32</v>
       </c>
-      <c r="CY7" t="s" s="1459">
+      <c r="CX7" t="s" s="1518">
         <v>33</v>
       </c>
-      <c r="CZ7" t="s" s="1460">
+      <c r="CY7" t="s" s="1519">
         <v>34</v>
       </c>
-      <c r="DA7" t="s" s="1461">
+      <c r="CZ7" t="s" s="1520">
         <v>35</v>
       </c>
-      <c r="DB7" t="s" s="1462">
+      <c r="DA7" t="s" s="1521">
         <v>36</v>
       </c>
-      <c r="DC7" t="s" s="1463">
+      <c r="DB7" t="s" s="1522">
         <v>37</v>
       </c>
-      <c r="DD7" t="s" s="1464">
+      <c r="DC7" t="s" s="1523">
         <v>38</v>
       </c>
-      <c r="DE7" t="s" s="1465">
+      <c r="DD7" t="s" s="1524">
         <v>39</v>
       </c>
-      <c r="DF7" t="s" s="1466">
+      <c r="DE7" t="s" s="1525">
         <v>40</v>
       </c>
-      <c r="DG7" t="s" s="1467">
-        <v>29</v>
-      </c>
-      <c r="DH7" t="s" s="1468">
+      <c r="DF7" t="s" s="1526">
+        <v>41</v>
+      </c>
+      <c r="DG7" t="s" s="1527">
         <v>30</v>
       </c>
-      <c r="DI7" t="s" s="1469">
+      <c r="DH7" t="s" s="1528">
         <v>31</v>
       </c>
-      <c r="DJ7" t="s" s="1470">
+      <c r="DI7" t="s" s="1529">
         <v>32</v>
       </c>
-      <c r="DK7" t="s" s="1471">
+      <c r="DJ7" t="s" s="1530">
         <v>33</v>
       </c>
-      <c r="DL7" t="s" s="1472">
+      <c r="DK7" t="s" s="1531">
         <v>34</v>
       </c>
-      <c r="DM7" t="s" s="1473">
+      <c r="DL7" t="s" s="1532">
         <v>35</v>
       </c>
-      <c r="DN7" t="s" s="1474">
+      <c r="DM7" t="s" s="1533">
         <v>36</v>
       </c>
-      <c r="DO7" t="s" s="1475">
+      <c r="DN7" t="s" s="1534">
         <v>37</v>
       </c>
-      <c r="DP7" t="s" s="1476">
+      <c r="DO7" t="s" s="1535">
         <v>38</v>
       </c>
-      <c r="DQ7" t="s" s="1477">
+      <c r="DP7" t="s" s="1536">
         <v>39</v>
       </c>
-      <c r="DR7" t="s" s="1478">
+      <c r="DQ7" t="s" s="1537">
         <v>40</v>
       </c>
-      <c r="DS7" t="s" s="1479">
-        <v>29</v>
-      </c>
-      <c r="DT7" t="s" s="1480">
+      <c r="DR7" t="s" s="1538">
+        <v>41</v>
+      </c>
+      <c r="DS7" t="s" s="1539">
         <v>30</v>
       </c>
-      <c r="DU7" t="s" s="1481">
+      <c r="DT7" t="s" s="1540">
         <v>31</v>
       </c>
-      <c r="DV7" t="s" s="1482">
+      <c r="DU7" t="s" s="1541">
         <v>32</v>
       </c>
-      <c r="DW7" t="s" s="1483">
+      <c r="DV7" t="s" s="1542">
         <v>33</v>
       </c>
-      <c r="DX7" t="s" s="1484">
+      <c r="DW7" t="s" s="1543">
         <v>34</v>
       </c>
-      <c r="DY7" t="s" s="1485">
+      <c r="DX7" t="s" s="1544">
         <v>35</v>
       </c>
-      <c r="DZ7" t="s" s="1486">
+      <c r="DY7" t="s" s="1545">
         <v>36</v>
       </c>
-      <c r="EA7" t="s" s="1487">
+      <c r="DZ7" t="s" s="1546">
         <v>37</v>
       </c>
-      <c r="EB7" t="s" s="1488">
+      <c r="EA7" t="s" s="1547">
         <v>38</v>
       </c>
-      <c r="EC7" t="s" s="1489">
+      <c r="EB7" t="s" s="1548">
         <v>39</v>
       </c>
-      <c r="ED7" t="s" s="1490">
+      <c r="EC7" t="s" s="1549">
         <v>40</v>
       </c>
-      <c r="EE7" t="s" s="1491">
-        <v>29</v>
-      </c>
-      <c r="EF7" t="s" s="1492">
+      <c r="ED7" t="s" s="1550">
+        <v>41</v>
+      </c>
+      <c r="EE7" t="s" s="1551">
         <v>30</v>
       </c>
-      <c r="EG7" t="s" s="1493">
+      <c r="EF7" t="s" s="1552">
         <v>31</v>
       </c>
-      <c r="EH7" t="s" s="1494">
+      <c r="EG7" t="s" s="1553">
         <v>32</v>
       </c>
-      <c r="EI7" t="s" s="1495">
+      <c r="EH7" t="s" s="1554">
         <v>33</v>
       </c>
-      <c r="EJ7" t="s" s="1496">
+      <c r="EI7" t="s" s="1555">
         <v>34</v>
       </c>
-      <c r="EK7" t="s" s="1497">
+      <c r="EJ7" t="s" s="1556">
         <v>35</v>
       </c>
-      <c r="EL7" t="s" s="1498">
+      <c r="EK7" t="s" s="1557">
         <v>36</v>
       </c>
-      <c r="EM7" t="s" s="1499">
+      <c r="EL7" t="s" s="1558">
         <v>37</v>
       </c>
-      <c r="EN7" t="s" s="1500">
+      <c r="EM7" t="s" s="1559">
         <v>38</v>
       </c>
-      <c r="EO7" t="s" s="1501">
+      <c r="EN7" t="s" s="1560">
         <v>39</v>
       </c>
-      <c r="EP7" t="s" s="1502">
+      <c r="EO7" t="s" s="1561">
         <v>40</v>
       </c>
-      <c r="EQ7" t="s" s="1503">
-        <v>29</v>
-      </c>
-      <c r="ER7" t="s" s="1504">
+      <c r="EP7" t="s" s="1562">
+        <v>41</v>
+      </c>
+      <c r="EQ7" t="s" s="1563">
         <v>30</v>
       </c>
-      <c r="ES7" t="s" s="1505">
+      <c r="ER7" t="s" s="1564">
         <v>31</v>
       </c>
-      <c r="ET7" t="s" s="1506">
+      <c r="ES7" t="s" s="1565">
         <v>32</v>
       </c>
-      <c r="EU7" t="s" s="1507">
+      <c r="ET7" t="s" s="1566">
         <v>33</v>
       </c>
-      <c r="EV7" t="s" s="1508">
+      <c r="EU7" t="s" s="1567">
         <v>34</v>
       </c>
-      <c r="EW7" t="s" s="1509">
+      <c r="EV7" t="s" s="1568">
         <v>35</v>
       </c>
-      <c r="EX7" t="s" s="1510">
+      <c r="EW7" t="s" s="1569">
         <v>36</v>
       </c>
-      <c r="EY7" t="s" s="1511">
+      <c r="EX7" t="s" s="1570">
         <v>37</v>
       </c>
-      <c r="EZ7" t="s" s="1512">
+      <c r="EY7" t="s" s="1571">
         <v>38</v>
       </c>
-      <c r="FA7" t="s" s="1513">
+      <c r="EZ7" t="s" s="1572">
         <v>39</v>
       </c>
-      <c r="FB7" t="s" s="1514">
+      <c r="FA7" t="s" s="1573">
         <v>40</v>
       </c>
-      <c r="FC7" t="s" s="1515">
-        <v>29</v>
-      </c>
-      <c r="FD7" t="s" s="1516">
+      <c r="FB7" t="s" s="1574">
+        <v>41</v>
+      </c>
+      <c r="FC7" t="s" s="1575">
         <v>30</v>
       </c>
-      <c r="FE7" t="s" s="1517">
+      <c r="FD7" t="s" s="1576">
         <v>31</v>
       </c>
-      <c r="FF7" t="s" s="1518">
+      <c r="FE7" t="s" s="1577">
         <v>32</v>
       </c>
-      <c r="FG7" t="s" s="1519">
+      <c r="FF7" t="s" s="1578">
         <v>33</v>
       </c>
-      <c r="FH7" t="s" s="1520">
+      <c r="FG7" t="s" s="1579">
         <v>34</v>
       </c>
-      <c r="FI7" t="s" s="1521">
+      <c r="FH7" t="s" s="1580">
         <v>35</v>
       </c>
-      <c r="FJ7" t="s" s="1522">
+      <c r="FI7" t="s" s="1581">
         <v>36</v>
       </c>
-      <c r="FK7" t="s" s="1523">
+      <c r="FJ7" t="s" s="1582">
         <v>37</v>
       </c>
-      <c r="FL7" t="s" s="1524">
+      <c r="FK7" t="s" s="1583">
         <v>38</v>
       </c>
-      <c r="FM7" t="s" s="1525">
+      <c r="FL7" t="s" s="1584">
         <v>39</v>
       </c>
-      <c r="FN7" t="s" s="1526">
+      <c r="FM7" t="s" s="1585">
         <v>40</v>
       </c>
-      <c r="FO7" t="s" s="1527">
-        <v>29</v>
-      </c>
-      <c r="FP7" t="s" s="1528">
+      <c r="FN7" t="s" s="1586">
+        <v>41</v>
+      </c>
+      <c r="FO7" t="s" s="1587">
         <v>30</v>
       </c>
-      <c r="FQ7" t="s" s="1529">
+      <c r="FP7" t="s" s="1588">
         <v>31</v>
       </c>
-      <c r="FR7" t="s" s="1530">
+      <c r="FQ7" t="s" s="1589">
         <v>32</v>
       </c>
-      <c r="FS7" t="s" s="1531">
+      <c r="FR7" t="s" s="1590">
         <v>33</v>
       </c>
-      <c r="FT7" t="s" s="1532">
+      <c r="FS7" t="s" s="1591">
         <v>34</v>
       </c>
-      <c r="FU7" t="s" s="1533">
+      <c r="FT7" t="s" s="1592">
         <v>35</v>
       </c>
-      <c r="FV7" t="s" s="1534">
+      <c r="FU7" t="s" s="1593">
         <v>36</v>
       </c>
-      <c r="FW7" t="s" s="1535">
+      <c r="FV7" t="s" s="1594">
         <v>37</v>
       </c>
-      <c r="FX7" t="s" s="1536">
+      <c r="FW7" t="s" s="1595">
         <v>38</v>
       </c>
-      <c r="FY7" t="s" s="1537">
+      <c r="FX7" t="s" s="1596">
         <v>39</v>
       </c>
-      <c r="FZ7" t="s" s="1538">
+      <c r="FY7" t="s" s="1597">
         <v>40</v>
       </c>
-      <c r="GA7" t="s" s="1539">
-        <v>29</v>
-      </c>
-      <c r="GB7" t="s" s="1540">
+      <c r="FZ7" t="s" s="1598">
+        <v>41</v>
+      </c>
+      <c r="GA7" t="s" s="1599">
         <v>30</v>
       </c>
-      <c r="GC7" t="s" s="1541">
+      <c r="GB7" t="s" s="1600">
         <v>31</v>
       </c>
-      <c r="GD7" t="s" s="1542">
+      <c r="GC7" t="s" s="1601">
         <v>32</v>
       </c>
-      <c r="GE7" t="s" s="1543">
+      <c r="GD7" t="s" s="1602">
         <v>33</v>
       </c>
-      <c r="GF7" t="s" s="1544">
+      <c r="GE7" t="s" s="1603">
         <v>34</v>
       </c>
-      <c r="GG7" t="s" s="1545">
+      <c r="GF7" t="s" s="1604">
         <v>35</v>
       </c>
-      <c r="GH7" t="s" s="1546">
+      <c r="GG7" t="s" s="1605">
         <v>36</v>
       </c>
-      <c r="GI7" t="s" s="1547">
+      <c r="GH7" t="s" s="1606">
         <v>37</v>
       </c>
-      <c r="GJ7" t="s" s="1548">
+      <c r="GI7" t="s" s="1607">
         <v>38</v>
       </c>
-      <c r="GK7" t="s" s="1549">
+      <c r="GJ7" t="s" s="1608">
         <v>39</v>
       </c>
-      <c r="GL7" t="s" s="1550">
+      <c r="GK7" t="s" s="1609">
         <v>40</v>
       </c>
-      <c r="GM7" t="s" s="1551">
-        <v>29</v>
-      </c>
-      <c r="GN7" t="s" s="1552">
+      <c r="GL7" t="s" s="1610">
+        <v>41</v>
+      </c>
+      <c r="GM7" t="s" s="1611">
         <v>30</v>
       </c>
-      <c r="GO7" t="s" s="1553">
+      <c r="GN7" t="s" s="1612">
         <v>31</v>
       </c>
-      <c r="GP7" t="s" s="1554">
+      <c r="GO7" t="s" s="1613">
         <v>32</v>
       </c>
-      <c r="GQ7" t="s" s="1555">
+      <c r="GP7" t="s" s="1614">
         <v>33</v>
       </c>
-      <c r="GR7" t="s" s="1556">
+      <c r="GQ7" t="s" s="1615">
         <v>34</v>
       </c>
-      <c r="GS7" t="s" s="1557">
+      <c r="GR7" t="s" s="1616">
         <v>35</v>
       </c>
-      <c r="GT7" t="s" s="1558">
+      <c r="GS7" t="s" s="1617">
         <v>36</v>
       </c>
-      <c r="GU7" t="s" s="1559">
+      <c r="GT7" t="s" s="1618">
         <v>37</v>
       </c>
-      <c r="GV7" t="s" s="1560">
+      <c r="GU7" t="s" s="1619">
         <v>38</v>
       </c>
-      <c r="GW7" t="s" s="1561">
+      <c r="GV7" t="s" s="1620">
         <v>39</v>
       </c>
-      <c r="GX7" t="s" s="1562">
+      <c r="GW7" t="s" s="1621">
         <v>40</v>
       </c>
-      <c r="GY7" t="s" s="1563">
-        <v>29</v>
-      </c>
-      <c r="GZ7" t="s" s="1564">
+      <c r="GX7" t="s" s="1622">
+        <v>41</v>
+      </c>
+      <c r="GY7" t="s" s="1623">
         <v>30</v>
       </c>
-      <c r="HA7" t="s" s="1565">
+      <c r="GZ7" t="s" s="1624">
         <v>31</v>
       </c>
-      <c r="HB7" t="s" s="1566">
+      <c r="HA7" t="s" s="1625">
         <v>32</v>
       </c>
-      <c r="HC7" t="s" s="1567">
+      <c r="HB7" t="s" s="1626">
         <v>33</v>
       </c>
-      <c r="HD7" t="s" s="1568">
+      <c r="HC7" t="s" s="1627">
         <v>34</v>
       </c>
-      <c r="HE7" t="s" s="1569">
+      <c r="HD7" t="s" s="1628">
         <v>35</v>
       </c>
-      <c r="HF7" t="s" s="1570">
+      <c r="HE7" t="s" s="1629">
         <v>36</v>
       </c>
-      <c r="HG7" t="s" s="1571">
+      <c r="HF7" t="s" s="1630">
         <v>37</v>
       </c>
-      <c r="HH7" t="s" s="1572">
+      <c r="HG7" t="s" s="1631">
         <v>38</v>
       </c>
-      <c r="HI7" t="s" s="1573">
+      <c r="HH7" t="s" s="1632">
         <v>39</v>
       </c>
-      <c r="HJ7" t="s" s="1574">
+      <c r="HI7" t="s" s="1633">
         <v>40</v>
       </c>
-      <c r="HK7" t="s" s="1575">
-        <v>29</v>
-      </c>
-      <c r="HL7" t="s" s="1576">
+      <c r="HJ7" t="s" s="1634">
+        <v>41</v>
+      </c>
+      <c r="HK7" t="s" s="1635">
         <v>30</v>
       </c>
-      <c r="HM7" t="s" s="1577">
+      <c r="HL7" t="s" s="1636">
         <v>31</v>
       </c>
-      <c r="HN7" t="s" s="1578">
+      <c r="HM7" t="s" s="1637">
         <v>32</v>
       </c>
-      <c r="HO7" t="s" s="1579">
+      <c r="HN7" t="s" s="1638">
         <v>33</v>
       </c>
-      <c r="HP7" t="s" s="1580">
+      <c r="HO7" t="s" s="1639">
         <v>34</v>
       </c>
-      <c r="HQ7" t="s" s="1581">
+      <c r="HP7" t="s" s="1640">
         <v>35</v>
       </c>
-      <c r="HR7" t="s" s="1582">
+      <c r="HQ7" t="s" s="1641">
         <v>36</v>
       </c>
-      <c r="HS7" t="s" s="1583">
+      <c r="HR7" t="s" s="1642">
         <v>37</v>
       </c>
-      <c r="HT7" t="s" s="1584">
+      <c r="HS7" t="s" s="1643">
         <v>38</v>
       </c>
-      <c r="HU7" t="s" s="1585">
+      <c r="HT7" t="s" s="1644">
         <v>39</v>
       </c>
-      <c r="HV7" t="s" s="1586">
+      <c r="HU7" t="s" s="1645">
         <v>40</v>
       </c>
-      <c r="HW7" t="s" s="1587">
-        <v>29</v>
-      </c>
-      <c r="HX7" t="s" s="1588">
+      <c r="HV7" t="s" s="1646">
+        <v>41</v>
+      </c>
+      <c r="HW7" t="s" s="1647">
         <v>30</v>
       </c>
-      <c r="HY7" t="s" s="1589">
+      <c r="HX7" t="s" s="1648">
         <v>31</v>
       </c>
-      <c r="HZ7" t="s" s="1590">
+      <c r="HY7" t="s" s="1649">
         <v>32</v>
       </c>
-      <c r="IA7" t="s" s="1591">
+      <c r="HZ7" t="s" s="1650">
         <v>33</v>
       </c>
-      <c r="IB7" t="s" s="1592">
+      <c r="IA7" t="s" s="1651">
         <v>34</v>
       </c>
-      <c r="IC7" t="s" s="1593">
+      <c r="IB7" t="s" s="1652">
         <v>35</v>
       </c>
-      <c r="ID7" t="s" s="1594">
+      <c r="IC7" t="s" s="1653">
         <v>36</v>
       </c>
-      <c r="IE7" t="s" s="1595">
+      <c r="ID7" t="s" s="1654">
         <v>37</v>
       </c>
-      <c r="IF7" t="s" s="1596">
+      <c r="IE7" t="s" s="1655">
         <v>38</v>
       </c>
-      <c r="IG7" t="s" s="1597">
+      <c r="IF7" t="s" s="1656">
         <v>39</v>
       </c>
-      <c r="IH7" t="s" s="1598">
+      <c r="IG7" t="s" s="1657">
         <v>40</v>
       </c>
-      <c r="II7" t="s" s="1599">
-        <v>29</v>
-      </c>
-      <c r="IJ7" t="s" s="1600">
+      <c r="IH7" t="s" s="1658">
+        <v>41</v>
+      </c>
+      <c r="II7" t="s" s="1659">
         <v>30</v>
       </c>
-      <c r="IK7" t="s" s="1601">
+      <c r="IJ7" t="s" s="1660">
         <v>31</v>
       </c>
-      <c r="IL7" t="s" s="1602">
+      <c r="IK7" t="s" s="1661">
         <v>32</v>
       </c>
-      <c r="IM7" t="s" s="1603">
+      <c r="IL7" t="s" s="1662">
         <v>33</v>
       </c>
-      <c r="IN7" t="s" s="1604">
+      <c r="IM7" t="s" s="1663">
         <v>34</v>
       </c>
-      <c r="IO7" t="s" s="1605">
+      <c r="IN7" t="s" s="1664">
         <v>35</v>
       </c>
-      <c r="IP7" t="s" s="1606">
+      <c r="IO7" t="s" s="1665">
         <v>36</v>
       </c>
-      <c r="IQ7" t="s" s="1607">
+      <c r="IP7" t="s" s="1666">
         <v>37</v>
       </c>
-      <c r="IR7" t="s" s="1608">
+      <c r="IQ7" t="s" s="1667">
         <v>38</v>
       </c>
-      <c r="IS7" t="s" s="1609">
+      <c r="IR7" t="s" s="1668">
         <v>39</v>
       </c>
-      <c r="IT7" t="s" s="1610">
+      <c r="IS7" t="s" s="1669">
         <v>40</v>
       </c>
-      <c r="IU7" t="s" s="1611">
-        <v>29</v>
-      </c>
-      <c r="IV7" t="s" s="1612">
+      <c r="IT7" t="s" s="1670">
+        <v>41</v>
+      </c>
+      <c r="IU7" t="s" s="1671">
         <v>30</v>
       </c>
-      <c r="IW7" t="s" s="1613">
+      <c r="IV7" t="s" s="1672">
         <v>31</v>
       </c>
-      <c r="IX7" t="s" s="1614">
+      <c r="IW7" t="s" s="1673">
         <v>32</v>
       </c>
-      <c r="IY7" t="s" s="1615">
+      <c r="IX7" t="s" s="1674">
         <v>33</v>
       </c>
-      <c r="IZ7" t="s" s="1616">
+      <c r="IY7" t="s" s="1675">
         <v>34</v>
       </c>
-      <c r="JA7" t="s" s="1617">
+      <c r="IZ7" t="s" s="1676">
         <v>35</v>
       </c>
-      <c r="JB7" t="s" s="1618">
+      <c r="JA7" t="s" s="1677">
         <v>36</v>
       </c>
-      <c r="JC7" t="s" s="1619">
+      <c r="JB7" t="s" s="1678">
         <v>37</v>
       </c>
-      <c r="JD7" t="s" s="1620">
+      <c r="JC7" t="s" s="1679">
         <v>38</v>
       </c>
-      <c r="JE7" t="s" s="1621">
+      <c r="JD7" t="s" s="1680">
         <v>39</v>
       </c>
-      <c r="JF7" t="s" s="1622">
+      <c r="JE7" t="s" s="1681">
         <v>40</v>
+      </c>
+      <c r="JF7" t="s" s="1682">
+        <v>41</v>
+      </c>
+      <c r="JG7" t="s" s="1683">
+        <v>30</v>
+      </c>
+      <c r="JH7" t="s" s="1684">
+        <v>31</v>
+      </c>
+      <c r="JI7" t="s" s="1685">
+        <v>32</v>
+      </c>
+      <c r="JJ7" t="s" s="1686">
+        <v>33</v>
+      </c>
+      <c r="JK7" t="s" s="1687">
+        <v>34</v>
+      </c>
+      <c r="JL7" t="s" s="1688">
+        <v>35</v>
+      </c>
+      <c r="JM7" t="s" s="1689">
+        <v>36</v>
+      </c>
+      <c r="JN7" t="s" s="1690">
+        <v>37</v>
+      </c>
+      <c r="JO7" t="s" s="1691">
+        <v>38</v>
+      </c>
+      <c r="JP7" t="s" s="1692">
+        <v>39</v>
+      </c>
+      <c r="JQ7" t="s" s="1693">
+        <v>40</v>
+      </c>
+      <c r="JR7" t="s" s="1694">
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n" s="10">
         <v>4.2043616E7</v>
@@ -10320,27 +10693,63 @@
         <v>1.15134405E8</v>
       </c>
       <c r="JB8" t="n" s="10">
-        <v>1.04506274E8</v>
+        <v>1.04523686E8</v>
       </c>
       <c r="JC8" t="n" s="10">
-        <v>1.1786407E8</v>
+        <v>1.1816995E8</v>
       </c>
       <c r="JD8" t="n" s="10">
-        <v>1.21389E8</v>
-      </c>
-      <c r="JE8" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="JF8" t="s" s="10">
-        <v>43</v>
+        <v>1.21412906E8</v>
+      </c>
+      <c r="JE8" t="n" s="10">
+        <v>1.25875298E8</v>
+      </c>
+      <c r="JF8" t="n" s="10">
+        <v>1.16930007E8</v>
+      </c>
+      <c r="JG8" t="n" s="10">
+        <v>1.09343492E8</v>
+      </c>
+      <c r="JH8" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="JI8" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="JJ8" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="JK8" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="JL8" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="JM8" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="JN8" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="JO8" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="JP8" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="JQ8" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="JR8" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n" s="10">
         <v>3.8923524E7</v>
@@ -11114,44 +11523,80 @@
         <v>9.7171555E7</v>
       </c>
       <c r="IZ9" t="n" s="10">
-        <v>1.02742979E8</v>
+        <v>1.02742976E8</v>
       </c>
       <c r="JA9" t="n" s="10">
-        <v>9.7289688E7</v>
+        <v>9.7289687E7</v>
       </c>
       <c r="JB9" t="n" s="10">
-        <v>9.2804589E7</v>
+        <v>9.2951698E7</v>
       </c>
       <c r="JC9" t="n" s="10">
-        <v>1.01881171E8</v>
+        <v>1.02049929E8</v>
       </c>
       <c r="JD9" t="n" s="10">
-        <v>1.08672771E8</v>
-      </c>
-      <c r="JE9" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="JF9" t="s" s="10">
-        <v>43</v>
+        <v>1.08809445E8</v>
+      </c>
+      <c r="JE9" t="n" s="10">
+        <v>1.14289503E8</v>
+      </c>
+      <c r="JF9" t="n" s="10">
+        <v>1.1031905E8</v>
+      </c>
+      <c r="JG9" t="n" s="10">
+        <v>1.06049701E8</v>
+      </c>
+      <c r="JH9" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="JI9" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="JJ9" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="JK9" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="JL9" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="JM9" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="JN9" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="JO9" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="JP9" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="JQ9" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="JR9" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="12">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:JF2"/>
-    <mergeCell ref="A3:JF3"/>
+    <mergeCell ref="A2:JR2"/>
+    <mergeCell ref="A3:JR3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:JF4"/>
+    <mergeCell ref="C4:JR4"/>
     <mergeCell ref="C5:N5"/>
     <mergeCell ref="O5:Z5"/>
     <mergeCell ref="AA5:AL5"/>
@@ -11174,6 +11619,7 @@
     <mergeCell ref="HW5:IH5"/>
     <mergeCell ref="II5:IT5"/>
     <mergeCell ref="IU5:JF5"/>
+    <mergeCell ref="JG5:JR5"/>
     <mergeCell ref="C6:N6"/>
     <mergeCell ref="O6:Z6"/>
     <mergeCell ref="AA6:AL6"/>
@@ -11196,11 +11642,12 @@
     <mergeCell ref="HW6:IH6"/>
     <mergeCell ref="II6:IT6"/>
     <mergeCell ref="IU6:JF6"/>
-    <mergeCell ref="A1:JF1"/>
+    <mergeCell ref="JG6:JR6"/>
+    <mergeCell ref="A1:JR1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:09:11&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:45:55&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>